--- a/shyoo_20150920.xlsx
+++ b/shyoo_20150920.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19875" windowHeight="11235"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19380" windowHeight="7980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="진행률" sheetId="5" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">UNIX_API!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">UNIX_Network!$A$1:$D$132</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="1105">
   <si>
     <t>1-7</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2289,12 +2289,6 @@
     <t>char *ctime_r(const time_t *clock, char *buf)</t>
   </si>
   <si>
-    <t>struct tm *gmtime_r(const time_t *clock, struct tm *result)</t>
-  </si>
-  <si>
-    <t>struct tm *localtime_r(const time_t *clock, struct tm *result)</t>
-  </si>
-  <si>
     <t>int rand_r(unsigned int *seed)</t>
   </si>
   <si>
@@ -2317,15 +2311,6 @@
   </si>
   <si>
     <t>int sigwait(const sigset_t *set, int *sig)</t>
-  </si>
-  <si>
-    <t>9.3.13</t>
-  </si>
-  <si>
-    <t>int sem_destroy(sem_r *sem)</t>
-  </si>
-  <si>
-    <t>int sem_init(sem_t *sem, int pshared, unsigned int value)</t>
   </si>
   <si>
     <t>10-1</t>
@@ -3567,10 +3552,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자식프로세스가 끝날때까지 부모프로세스가 대기상태가 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2015-09-20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3768,6 +3749,101 @@
   </si>
   <si>
     <t>완료율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-09-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일의 권한을 변경시켜준다. (성공:0 / 실패:-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chmod와 동일하나 파일경로를 변경하는게 아닌 파일 디스크립터를 통하여 변경시킨다.
+(Fopen으로 열어서 얻은)   (성공 0 / 실패 -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 된 유저 id로 사용자 정보를 passwd 구조체에 가져온다. (성공:구조체 포인터 / 실패: NULL)
+struct passwd
+{
+  char *pw_name;        /* Username.  */
+  char *pw_passwd;      /* Password.  */
+  __uid_t pw_uid;       /* User ID.  */
+  __gid_t pw_gid;       /* Group ID.  */
+  char *pw_gecos;       /* Real name.  */
+  char *pw_dir;         /* Home directory.  */
+  char *pw_shell;       /* Shell program.  */
+};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일경로와 새 소유자의 사용자id,그룹id를 통하여 파일의 소유권을 바꾼다. (성공 0 / 실패 -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chown과 동일하나 파일 디스크립터를 이용하여 변경시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readdir()로 읽어진 디렉토리안의 파일의 리스트의 처음으로 다시 되돌려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자식프로세스가 끝날때까지 부모프로세스가 대기상태가 된다. (성공 : 자식프로세스pid / 실패 :-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자식프로세스중 해당하는 pid가 끝날때가지 부모프로세스가 대기상태가 된다. (성공 : 자식pid / 실패 -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 스레드가 같은지 확인한다 (성공 : non-zero 실패 : 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스레드를 생성한다. 두번째 인자에 NULL을 넣으면 기본값으로 설정. 세번째 인자에 스레드를 수행할 함수, 네번째 인자에 함수의 인자로 보낼 값을 적어준다.
+(성공 : 0 / 실패 : 에러넘버)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스레드 함수 내에서 스레드를 종료시킨다. 인자는 리턴값이다.
+스레드가 종료되면 대기중인 pthread_join함수로 전달된다.
+(성공 : 0 / 실패 : 에러넘버)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당스레드가 종료될때까지 대기한다. 두번째 인자로 쓰레드가 종료 시 리턴값을 받을 수 있다.
+(성공 : 0 / 실패 : 에러넘버)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 스레드를 main스레드에서 분리시킨다. 분리된 스레드는 스레드종료시 자원이 반환된다.
+일반적으로는 join을 호출하지 않으면 반환되지 않는다. Detach상태면 join은 실패하게 된다.
+(성공 : 0 / 실패 : 에러넘버)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutex를 default속성으로 초기화 시켜준다. Static이기 때문에 정적이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutex를 생성한다. 두번째 인자를 통하여 mutex속성을 지정하게된다. NULL이면 default값
+(성공 : 0 / 실패 : 에러넘버)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 mutex를 닫는다. (성공 : 0 / 실패 : 에러넘버)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critical section에 하나의 스레드만 접근할 수 있도록 뮤택스를 잠금상태로 요청한다.
+Unlock상태면 lock을 얻고 lock상태이면 대기하게 된다. (성공 : 0 / 실패 : 에러넘버)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뮤택스를 잠금해제상태로 요청 (위와 동일하다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4226,7 +4302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4331,12 +4407,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4478,6 +4548,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4963,8 +5036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4981,191 +5054,192 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="49"/>
-      <c r="C2" s="50" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E2" s="51" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G2" s="75" t="s">
         <v>1085</v>
       </c>
-      <c r="F2" s="72" t="s">
-        <v>1086</v>
-      </c>
-      <c r="G2" s="77" t="s">
-        <v>1091</v>
-      </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="52" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C3" s="53">
+      <c r="B3" s="50" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C3" s="51">
         <f>COUNTA(UNIX_API!$B$2:$B$500)</f>
         <v>230</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="52">
         <f>COUNTA(UNIX_API!$C$2:$C$500)</f>
-        <v>61</v>
-      </c>
-      <c r="E3" s="54">
+        <v>68</v>
+      </c>
+      <c r="E3" s="52">
         <f>COUNTA(UNIX_API!$E$2:$E$500)</f>
         <v>13</v>
       </c>
-      <c r="F3" s="73">
+      <c r="F3" s="71">
         <f>(D3/C3)</f>
-        <v>0.26521739130434785</v>
-      </c>
-      <c r="G3" s="78">
+        <v>0.29565217391304349</v>
+      </c>
+      <c r="G3" s="76">
         <f>(D3-E3)/C3</f>
-        <v>0.20869565217391303</v>
+        <v>0.2391304347826087</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C4" s="56">
-        <f>COUNTA(Thread_API!$B$2:$B$500)</f>
-        <v>222</v>
-      </c>
-      <c r="D4" s="57">
-        <f>COUNTA(Thread_API!$C$2:$C$500)</f>
+      <c r="B4" s="53" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C4" s="54">
+        <f>COUNTA(Thread_API!$B$2:$B$493)</f>
+        <v>215</v>
+      </c>
+      <c r="D4" s="55">
+        <f>COUNTA(Thread_API!$C$2:$C$493)</f>
+        <v>10</v>
+      </c>
+      <c r="E4" s="55">
+        <f>COUNTA(Thread_API!$E$2:$E$493)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="57">
-        <f>COUNTA(Thread_API!$E$2:$E$500)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="74">
+      <c r="F4" s="72">
         <f t="shared" ref="F4:F9" si="0">(D4/C4)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="79">
+        <v>4.6511627906976744E-2</v>
+      </c>
+      <c r="G4" s="77">
         <f>(D4-E4)/C4</f>
-        <v>0</v>
+        <v>4.6511627906976744E-2</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="58" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C5" s="61">
+      <c r="B5" s="56" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C5" s="59">
         <f>COUNTA(UNIX_Network!$B$2:$B$500)</f>
         <v>131</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="57">
         <f>COUNTA(UNIX_Network!$C$2:$C$500)</f>
         <v>17</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="57">
         <f>COUNTA(UNIX_Network!$E$2:$E$500)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="75">
+      <c r="F5" s="73">
         <f t="shared" si="0"/>
         <v>0.12977099236641221</v>
       </c>
-      <c r="G5" s="80">
+      <c r="G5" s="78">
         <f>(D5-E5)/C5</f>
         <v>0.12977099236641221</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="70"/>
-      <c r="C6" s="71">
+      <c r="B6" s="68"/>
+      <c r="C6" s="69">
         <f>SUM(C3:C5)</f>
-        <v>583</v>
-      </c>
-      <c r="D6" s="71">
+        <v>576</v>
+      </c>
+      <c r="D6" s="69">
         <f t="shared" ref="D6:E6" si="1">SUM(D3:D5)</f>
-        <v>78</v>
-      </c>
-      <c r="E6" s="71">
+        <v>95</v>
+      </c>
+      <c r="E6" s="69">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="74">
         <f t="shared" si="0"/>
-        <v>0.13379073756432247</v>
-      </c>
-      <c r="G6" s="81">
+        <v>0.16493055555555555</v>
+      </c>
+      <c r="G6" s="79">
         <f>(D6-E6)/C6</f>
-        <v>0.11149228130360206</v>
+        <v>0.1423611111111111</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="69"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="67"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="49"/>
-      <c r="C8" s="50" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D8" s="51" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="48" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G8" s="81" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="60" t="s">
         <v>1084</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F8" s="72" t="s">
-        <v>1086</v>
-      </c>
-      <c r="G8" s="83" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="62" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C9" s="63">
+      <c r="C9" s="61">
         <f>COUNTA(Linux!$A$2:$A$500)</f>
         <v>240</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="62">
         <f>COUNTA(Linux!$C$2:$C$500)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="62">
         <f>COUNTA(Linux!$D$2:$D$500)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="79">
         <f>(D9-E9)/C9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F10" s="60"/>
+      <c r="F10" s="58"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F11" s="60"/>
+      <c r="F11" s="58"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F12" s="60"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F13" s="60"/>
+      <c r="F13" s="58"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F14" s="60"/>
+      <c r="F14" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5173,9 +5247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I231"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -5183,7 +5257,7 @@
     <col min="1" max="1" width="9.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="59.125" style="16" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="90.875" style="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -5214,10 +5288,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="E2" s="15"/>
     </row>
@@ -5229,10 +5303,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -5387,13 +5461,13 @@
         <v>31</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -5404,13 +5478,13 @@
         <v>32</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -5421,13 +5495,13 @@
         <v>33</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
@@ -5438,10 +5512,10 @@
         <v>35</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="E20" s="15"/>
     </row>
@@ -5461,19 +5535,27 @@
       <c r="B22" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="30"/>
+      <c r="C22" s="32" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>1087</v>
+      </c>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="32" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>1088</v>
+      </c>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -5483,8 +5565,12 @@
       <c r="B24" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="30"/>
+      <c r="C24" s="32" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>1090</v>
+      </c>
       <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -5494,8 +5580,12 @@
       <c r="B25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="30"/>
+      <c r="C25" s="32" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>1091</v>
+      </c>
       <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -5561,10 +5651,10 @@
         <v>51</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="E31" s="15"/>
     </row>
@@ -5576,10 +5666,10 @@
         <v>52</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="E32" s="15"/>
     </row>
@@ -5624,10 +5714,10 @@
         <v>59</v>
       </c>
       <c r="C36" s="32" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D36" s="30" t="s">
         <v>1043</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>1048</v>
       </c>
       <c r="E36" s="15"/>
     </row>
@@ -5639,10 +5729,10 @@
         <v>61</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>1029</v>
+        <v>1038</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>1024</v>
       </c>
       <c r="E37" s="15"/>
     </row>
@@ -5654,10 +5744,10 @@
         <v>62</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D38" s="43" t="s">
-        <v>1030</v>
+        <v>1038</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>1025</v>
       </c>
       <c r="E38" s="15"/>
     </row>
@@ -5668,8 +5758,12 @@
       <c r="B39" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="30"/>
+      <c r="C39" s="32" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>1092</v>
+      </c>
       <c r="E39" s="15"/>
     </row>
     <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -5680,10 +5774,10 @@
         <v>64</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D40" s="44" t="s">
-        <v>1031</v>
+        <v>1038</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>1026</v>
       </c>
       <c r="E40" s="15"/>
     </row>
@@ -5772,10 +5866,10 @@
         <v>75</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E48" s="15"/>
     </row>
@@ -5787,10 +5881,10 @@
         <v>77</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="E49" s="15"/>
     </row>
@@ -5824,10 +5918,10 @@
         <v>80</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E52" s="15"/>
     </row>
@@ -5839,10 +5933,10 @@
         <v>82</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="E53" s="15"/>
     </row>
@@ -5854,10 +5948,10 @@
         <v>83</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="E54" s="15"/>
     </row>
@@ -5880,10 +5974,10 @@
         <v>85</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E56" s="15"/>
     </row>
@@ -5895,10 +5989,10 @@
         <v>86</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="E57" s="15"/>
     </row>
@@ -5910,10 +6004,10 @@
         <v>87</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="E58" s="15"/>
     </row>
@@ -5936,10 +6030,10 @@
         <v>89</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="E60" s="15"/>
     </row>
@@ -5951,10 +6045,10 @@
         <v>90</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="E61" s="15"/>
     </row>
@@ -5966,10 +6060,10 @@
         <v>91</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E62" s="15"/>
     </row>
@@ -5981,10 +6075,10 @@
         <v>93</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="E63" s="15"/>
     </row>
@@ -6007,10 +6101,10 @@
         <v>95</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="E65" s="15"/>
     </row>
@@ -6022,10 +6116,10 @@
         <v>96</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="E66" s="15"/>
     </row>
@@ -6059,10 +6153,10 @@
         <v>101</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="E69" s="15"/>
     </row>
@@ -6074,10 +6168,10 @@
         <v>102</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="E70" s="15"/>
     </row>
@@ -6089,10 +6183,10 @@
         <v>103</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E71" s="15"/>
     </row>
@@ -6104,10 +6198,10 @@
         <v>105</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="E72" s="15"/>
     </row>
@@ -6119,10 +6213,10 @@
         <v>106</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="E73" s="15"/>
     </row>
@@ -6134,13 +6228,13 @@
         <v>107</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6151,13 +6245,13 @@
         <v>108</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -6168,10 +6262,10 @@
         <v>109</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="E76" s="15"/>
     </row>
@@ -6216,13 +6310,13 @@
         <v>113</v>
       </c>
       <c r="C80" s="32" t="s">
+        <v>987</v>
+      </c>
+      <c r="D80" s="28" t="s">
         <v>992</v>
       </c>
-      <c r="D80" s="28" t="s">
-        <v>997</v>
-      </c>
       <c r="E80" s="15" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -6233,13 +6327,13 @@
         <v>114</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6308,15 +6402,19 @@
       <c r="D87" s="30"/>
       <c r="E87" s="15"/>
     </row>
-    <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>122</v>
       </c>
       <c r="B88" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="30"/>
+      <c r="C88" s="32" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D88" s="39" t="s">
+        <v>1089</v>
+      </c>
       <c r="E88" s="15"/>
     </row>
     <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6470,10 +6568,10 @@
         <v>142</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="E102" s="15"/>
     </row>
@@ -6496,10 +6594,10 @@
         <v>144</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="E104" s="15"/>
     </row>
@@ -6533,10 +6631,10 @@
         <v>147</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="E107" s="15"/>
     </row>
@@ -6592,10 +6690,10 @@
         <v>154</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D112" s="45" t="s">
-        <v>1032</v>
+        <v>1028</v>
+      </c>
+      <c r="D112" s="43" t="s">
+        <v>1027</v>
       </c>
       <c r="E112" s="15"/>
     </row>
@@ -6607,10 +6705,10 @@
         <v>155</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="E113" s="15"/>
     </row>
@@ -6622,10 +6720,10 @@
         <v>156</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="E114" s="15"/>
     </row>
@@ -6637,10 +6735,10 @@
         <v>157</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="E115" s="15"/>
     </row>
@@ -6740,13 +6838,13 @@
         <v>171</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6757,13 +6855,13 @@
         <v>172</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6774,13 +6872,13 @@
         <v>173</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D126" s="30" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6802,13 +6900,13 @@
         <v>175</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="D128" s="30" t="s">
+        <v>986</v>
+      </c>
+      <c r="E128" s="15" t="s">
         <v>991</v>
-      </c>
-      <c r="E128" s="15" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6830,13 +6928,13 @@
         <v>178</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6847,10 +6945,10 @@
         <v>180</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>1054</v>
+        <v>1093</v>
       </c>
       <c r="E131" s="15"/>
     </row>
@@ -6861,8 +6959,12 @@
       <c r="B132" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C132" s="32"/>
-      <c r="D132" s="30"/>
+      <c r="C132" s="32" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D132" s="30" t="s">
+        <v>1094</v>
+      </c>
       <c r="E132" s="15"/>
     </row>
     <row r="133" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -7038,10 +7140,10 @@
         <v>205</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="E148" s="15"/>
     </row>
@@ -7119,13 +7221,13 @@
         <v>219</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
@@ -7136,14 +7238,14 @@
         <v>221</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="E156" s="15"/>
       <c r="F156" s="1" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -7164,10 +7266,10 @@
         <v>224</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="E158" s="15"/>
     </row>
@@ -7179,10 +7281,10 @@
         <v>225</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="E159" s="15"/>
     </row>
@@ -7611,7 +7713,7 @@
       </c>
       <c r="C191" s="33"/>
       <c r="D191" s="28" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="E191" s="15"/>
       <c r="F191" s="8"/>
@@ -7764,11 +7866,11 @@
       <c r="B202" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="C202" s="37">
+      <c r="C202" s="35">
         <v>42266</v>
       </c>
       <c r="D202" s="28" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="E202" s="15"/>
     </row>
@@ -7861,11 +7963,11 @@
       <c r="B209" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="C209" s="37">
+      <c r="C209" s="35">
         <v>42266</v>
       </c>
       <c r="D209" s="28" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="E209" s="20"/>
       <c r="F209" s="12"/>
@@ -7880,11 +7982,11 @@
       <c r="B210" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="C210" s="37">
+      <c r="C210" s="35">
         <v>42266</v>
       </c>
-      <c r="D210" s="41" t="s">
-        <v>1027</v>
+      <c r="D210" s="39" t="s">
+        <v>1022</v>
       </c>
       <c r="E210" s="20"/>
       <c r="F210" s="12"/>
@@ -7899,7 +8001,7 @@
       <c r="B211" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="C211" s="37">
+      <c r="C211" s="35">
         <v>42266</v>
       </c>
       <c r="D211" s="30"/>
@@ -7914,9 +8016,9 @@
         <v>305</v>
       </c>
       <c r="B212" s="18" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C212" s="37">
+        <v>1019</v>
+      </c>
+      <c r="C212" s="35">
         <v>42266</v>
       </c>
       <c r="D212" s="28"/>
@@ -7933,11 +8035,11 @@
       <c r="B213" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="C213" s="37">
+      <c r="C213" s="35">
         <v>42266</v>
       </c>
       <c r="D213" s="28" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="E213" s="20"/>
       <c r="F213" s="12"/>
@@ -7952,11 +8054,11 @@
       <c r="B214" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="C214" s="37">
+      <c r="C214" s="35">
         <v>42266</v>
       </c>
-      <c r="D214" s="41" t="s">
-        <v>1028</v>
+      <c r="D214" s="39" t="s">
+        <v>1023</v>
       </c>
       <c r="E214" s="20"/>
       <c r="F214" s="12"/>
@@ -8281,19 +8383,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="64.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="82.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="88.125" style="38" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -8318,18 +8420,26 @@
       <c r="B2" s="30" t="s">
         <v>532</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C2" s="35">
+        <v>42269</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>531</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>533</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="C3" s="35">
+        <v>42269</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>1096</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
@@ -8339,207 +8449,239 @@
         <v>534</v>
       </c>
       <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>531</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C5" s="35">
+        <v>42269</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>531</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C6" s="35">
+        <v>42269</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>531</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>537</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="C7" s="35">
+        <v>42269</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>1098</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>538</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="36" t="s">
         <v>539</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="36"/>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C8" s="35">
+        <v>42269</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>538</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="36" t="s">
         <v>540</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="35">
+        <v>42269</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>538</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="36" t="s">
         <v>541</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="36"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C10" s="35">
+        <v>42269</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>542</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="36"/>
+      <c r="C11" s="35">
+        <v>42269</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>542</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="36"/>
+      <c r="C12" s="35">
+        <v>42269</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="36" t="s">
         <v>546</v>
       </c>
       <c r="C13" s="33"/>
-      <c r="D13" s="36"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="36" t="s">
         <v>547</v>
       </c>
       <c r="C14" s="33"/>
-      <c r="D14" s="36"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="36" t="s">
         <v>548</v>
       </c>
       <c r="C15" s="33"/>
-      <c r="D15" s="36"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>549</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>550</v>
       </c>
       <c r="C16" s="33"/>
-      <c r="D16" s="36"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>549</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="36" t="s">
         <v>551</v>
       </c>
       <c r="C17" s="33"/>
-      <c r="D17" s="36"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>552</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="36" t="s">
         <v>553</v>
       </c>
       <c r="C18" s="33"/>
-      <c r="D18" s="36"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>549</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="36" t="s">
         <v>554</v>
       </c>
       <c r="C19" s="33"/>
-      <c r="D19" s="36"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>555</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="36" t="s">
         <v>556</v>
       </c>
       <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="36" t="s">
         <v>558</v>
       </c>
       <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="36" t="s">
         <v>559</v>
       </c>
       <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="36" t="s">
         <v>560</v>
       </c>
       <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="36" t="s">
         <v>561</v>
       </c>
       <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
@@ -8549,7 +8691,7 @@
         <v>562</v>
       </c>
       <c r="C25" s="32"/>
-      <c r="D25" s="35"/>
+      <c r="D25" s="82"/>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
@@ -8559,7 +8701,7 @@
         <v>563</v>
       </c>
       <c r="C26" s="32"/>
-      <c r="D26" s="35"/>
+      <c r="D26" s="82"/>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
@@ -8569,7 +8711,7 @@
         <v>564</v>
       </c>
       <c r="C27" s="32"/>
-      <c r="D27" s="35"/>
+      <c r="D27" s="82"/>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
@@ -8579,53 +8721,53 @@
         <v>565</v>
       </c>
       <c r="C28" s="32"/>
-      <c r="D28" s="35"/>
+      <c r="D28" s="82"/>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="36" t="s">
         <v>566</v>
       </c>
       <c r="C29" s="32"/>
-      <c r="D29" s="35"/>
+      <c r="D29" s="82"/>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="36" t="s">
         <v>567</v>
       </c>
       <c r="C30" s="32"/>
-      <c r="D30" s="35"/>
+      <c r="D30" s="82"/>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="36" t="s">
         <v>568</v>
       </c>
       <c r="C31" s="32"/>
-      <c r="D31" s="35"/>
+      <c r="D31" s="82"/>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="36" t="s">
         <v>569</v>
       </c>
       <c r="C32" s="32"/>
-      <c r="D32" s="35"/>
+      <c r="D32" s="82"/>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="36" t="s">
         <v>570</v>
       </c>
       <c r="C33" s="32"/>
@@ -8634,7 +8776,7 @@
       <c r="A34" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="36" t="s">
         <v>571</v>
       </c>
       <c r="C34" s="32"/>
@@ -8643,7 +8785,7 @@
       <c r="A35" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="36" t="s">
         <v>572</v>
       </c>
       <c r="C35" s="32"/>
@@ -8652,7 +8794,7 @@
       <c r="A36" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="36" t="s">
         <v>573</v>
       </c>
       <c r="C36" s="32"/>
@@ -8661,7 +8803,7 @@
       <c r="A37" s="32" t="s">
         <v>574</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="36" t="s">
         <v>575</v>
       </c>
       <c r="C37" s="32"/>
@@ -8670,7 +8812,7 @@
       <c r="A38" s="32" t="s">
         <v>574</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="36" t="s">
         <v>576</v>
       </c>
       <c r="C38" s="32"/>
@@ -8679,7 +8821,7 @@
       <c r="A39" s="32" t="s">
         <v>574</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="36" t="s">
         <v>577</v>
       </c>
       <c r="C39" s="32"/>
@@ -8688,7 +8830,7 @@
       <c r="A40" s="32" t="s">
         <v>574</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="36" t="s">
         <v>578</v>
       </c>
       <c r="C40" s="32"/>
@@ -8697,7 +8839,7 @@
       <c r="A41" s="32" t="s">
         <v>574</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="36" t="s">
         <v>579</v>
       </c>
       <c r="C41" s="32"/>
@@ -8706,7 +8848,7 @@
       <c r="A42" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="36" t="s">
         <v>581</v>
       </c>
       <c r="C42" s="32"/>
@@ -8715,7 +8857,7 @@
       <c r="A43" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="36" t="s">
         <v>582</v>
       </c>
       <c r="C43" s="32"/>
@@ -8724,7 +8866,7 @@
       <c r="A44" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="36" t="s">
         <v>583</v>
       </c>
       <c r="C44" s="32"/>
@@ -8733,7 +8875,7 @@
       <c r="A45" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="36" t="s">
         <v>584</v>
       </c>
       <c r="C45" s="32"/>
@@ -8742,7 +8884,7 @@
       <c r="A46" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="36" t="s">
         <v>585</v>
       </c>
       <c r="C46" s="32"/>
@@ -8751,7 +8893,7 @@
       <c r="A47" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="36" t="s">
         <v>586</v>
       </c>
       <c r="C47" s="32"/>
@@ -8760,7 +8902,7 @@
       <c r="A48" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="36" t="s">
         <v>587</v>
       </c>
       <c r="C48" s="32"/>
@@ -8769,7 +8911,7 @@
       <c r="A49" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="36" t="s">
         <v>588</v>
       </c>
       <c r="C49" s="32"/>
@@ -8787,7 +8929,7 @@
       <c r="A51" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="36" t="s">
         <v>590</v>
       </c>
       <c r="C51" s="32"/>
@@ -8796,7 +8938,7 @@
       <c r="A52" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="36" t="s">
         <v>591</v>
       </c>
       <c r="C52" s="32"/>
@@ -8805,7 +8947,7 @@
       <c r="A53" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="36" t="s">
         <v>592</v>
       </c>
       <c r="C53" s="32"/>
@@ -8814,7 +8956,7 @@
       <c r="A54" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="36" t="s">
         <v>593</v>
       </c>
       <c r="C54" s="32"/>
@@ -8823,7 +8965,7 @@
       <c r="A55" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="36" t="s">
         <v>594</v>
       </c>
       <c r="C55" s="32"/>
@@ -8832,7 +8974,7 @@
       <c r="A56" s="32" t="s">
         <v>580</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="36" t="s">
         <v>595</v>
       </c>
       <c r="C56" s="32"/>
@@ -8841,7 +8983,7 @@
       <c r="A57" s="32" t="s">
         <v>596</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="36" t="s">
         <v>597</v>
       </c>
       <c r="C57" s="32"/>
@@ -8850,7 +8992,7 @@
       <c r="A58" s="32" t="s">
         <v>596</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="36" t="s">
         <v>598</v>
       </c>
       <c r="C58" s="32"/>
@@ -8859,7 +9001,7 @@
       <c r="A59" s="32" t="s">
         <v>596</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="36" t="s">
         <v>599</v>
       </c>
       <c r="C59" s="32"/>
@@ -8868,7 +9010,7 @@
       <c r="A60" s="32" t="s">
         <v>596</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="36" t="s">
         <v>600</v>
       </c>
       <c r="C60" s="32"/>
@@ -8877,7 +9019,7 @@
       <c r="A61" s="32" t="s">
         <v>596</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="36" t="s">
         <v>601</v>
       </c>
       <c r="C61" s="32"/>
@@ -8886,7 +9028,7 @@
       <c r="A62" s="32" t="s">
         <v>596</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="36" t="s">
         <v>602</v>
       </c>
       <c r="C62" s="32"/>
@@ -8895,7 +9037,7 @@
       <c r="A63" s="32" t="s">
         <v>596</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="36" t="s">
         <v>603</v>
       </c>
       <c r="C63" s="32"/>
@@ -8904,7 +9046,7 @@
       <c r="A64" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="36" t="s">
         <v>605</v>
       </c>
       <c r="C64" s="32"/>
@@ -8913,171 +9055,171 @@
       <c r="A65" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="36" t="s">
         <v>606</v>
       </c>
       <c r="C65" s="32"/>
-      <c r="D65" s="35"/>
+      <c r="D65" s="82"/>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="36" t="s">
         <v>607</v>
       </c>
       <c r="C66" s="32"/>
-      <c r="D66" s="35"/>
+      <c r="D66" s="82"/>
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="36" t="s">
         <v>608</v>
       </c>
       <c r="C67" s="32"/>
-      <c r="D67" s="35"/>
+      <c r="D67" s="82"/>
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="36" t="s">
         <v>609</v>
       </c>
       <c r="C68" s="32"/>
-      <c r="D68" s="35"/>
+      <c r="D68" s="82"/>
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="36" t="s">
         <v>610</v>
       </c>
       <c r="C69" s="32"/>
-      <c r="D69" s="35"/>
+      <c r="D69" s="82"/>
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="36" t="s">
         <v>611</v>
       </c>
       <c r="C70" s="32"/>
-      <c r="D70" s="35"/>
+      <c r="D70" s="82"/>
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="36" t="s">
         <v>612</v>
       </c>
       <c r="C71" s="32"/>
-      <c r="D71" s="35"/>
+      <c r="D71" s="82"/>
     </row>
     <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="36" t="s">
         <v>613</v>
       </c>
       <c r="C72" s="32"/>
-      <c r="D72" s="35"/>
+      <c r="D72" s="82"/>
     </row>
     <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="36" t="s">
         <v>614</v>
       </c>
       <c r="C73" s="32"/>
-      <c r="D73" s="33"/>
+      <c r="D73" s="30"/>
     </row>
     <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="36" t="s">
         <v>615</v>
       </c>
       <c r="C74" s="32"/>
-      <c r="D74" s="33"/>
+      <c r="D74" s="30"/>
     </row>
     <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="B75" s="38" t="s">
+      <c r="B75" s="36" t="s">
         <v>616</v>
       </c>
       <c r="C75" s="32"/>
-      <c r="D75" s="33"/>
+      <c r="D75" s="30"/>
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="36" t="s">
         <v>617</v>
       </c>
       <c r="C76" s="32"/>
-      <c r="D76" s="33"/>
+      <c r="D76" s="30"/>
     </row>
     <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="36" t="s">
         <v>618</v>
       </c>
       <c r="C77" s="32"/>
-      <c r="D77" s="33"/>
+      <c r="D77" s="30"/>
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="B78" s="38" t="s">
+      <c r="B78" s="36" t="s">
         <v>619</v>
       </c>
       <c r="C78" s="32"/>
-      <c r="D78" s="33"/>
+      <c r="D78" s="30"/>
     </row>
     <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="B79" s="38" t="s">
+      <c r="B79" s="36" t="s">
         <v>620</v>
       </c>
       <c r="C79" s="32"/>
-      <c r="D79" s="33"/>
+      <c r="D79" s="30"/>
     </row>
     <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="B80" s="38" t="s">
+      <c r="B80" s="36" t="s">
         <v>621</v>
       </c>
       <c r="C80" s="32"/>
-      <c r="D80" s="33"/>
+      <c r="D80" s="30"/>
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="B81" s="38" t="s">
+      <c r="B81" s="36" t="s">
         <v>622</v>
       </c>
       <c r="C81" s="32"/>
-      <c r="D81" s="33"/>
+      <c r="D81" s="30"/>
     </row>
     <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
@@ -9087,7 +9229,7 @@
         <v>624</v>
       </c>
       <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
+      <c r="D82" s="30"/>
     </row>
     <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
@@ -9097,7 +9239,7 @@
         <v>625</v>
       </c>
       <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
+      <c r="D83" s="30"/>
     </row>
     <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
@@ -9107,7 +9249,7 @@
         <v>626</v>
       </c>
       <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
+      <c r="D84" s="30"/>
     </row>
     <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
@@ -9117,7 +9259,7 @@
         <v>566</v>
       </c>
       <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
+      <c r="D85" s="30"/>
     </row>
     <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="33" t="s">
@@ -9127,7 +9269,7 @@
         <v>627</v>
       </c>
       <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
+      <c r="D86" s="30"/>
     </row>
     <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
@@ -9137,7 +9279,7 @@
         <v>628</v>
       </c>
       <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
+      <c r="D87" s="30"/>
     </row>
     <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
@@ -9147,7 +9289,7 @@
         <v>629</v>
       </c>
       <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
+      <c r="D88" s="30"/>
     </row>
     <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="33" t="s">
@@ -9157,7 +9299,7 @@
         <v>630</v>
       </c>
       <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
+      <c r="D89" s="30"/>
     </row>
     <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="33" t="s">
@@ -9167,7 +9309,7 @@
         <v>536</v>
       </c>
       <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
+      <c r="D90" s="30"/>
     </row>
     <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="33" t="s">
@@ -9177,7 +9319,7 @@
         <v>631</v>
       </c>
       <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
+      <c r="D91" s="30"/>
     </row>
     <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
@@ -9187,7 +9329,7 @@
         <v>632</v>
       </c>
       <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
+      <c r="D92" s="30"/>
     </row>
     <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
@@ -9197,7 +9339,7 @@
         <v>633</v>
       </c>
       <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
+      <c r="D93" s="30"/>
     </row>
     <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="33" t="s">
@@ -9207,1297 +9349,1227 @@
         <v>477</v>
       </c>
       <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
+      <c r="D94" s="30"/>
     </row>
     <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="33" t="s">
         <v>623</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>534</v>
+        <v>634</v>
       </c>
       <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
+      <c r="D95" s="30"/>
     </row>
     <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="33" t="s">
         <v>623</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
+      <c r="D96" s="30"/>
     </row>
     <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="33" t="s">
         <v>623</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>635</v>
+        <v>558</v>
       </c>
       <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
+      <c r="D97" s="30"/>
     </row>
     <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="33" t="s">
         <v>623</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
+      <c r="D98" s="30"/>
     </row>
     <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="33" t="s">
         <v>623</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
+      <c r="D99" s="30"/>
     </row>
     <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="33" t="s">
         <v>623</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>541</v>
+        <v>636</v>
       </c>
       <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
+      <c r="D100" s="30"/>
     </row>
     <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="33" t="s">
         <v>623</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>636</v>
+        <v>543</v>
       </c>
       <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
+      <c r="D101" s="30"/>
     </row>
     <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="33" t="s">
         <v>623</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>543</v>
+        <v>637</v>
       </c>
       <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
+      <c r="D102" s="30"/>
     </row>
     <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="33" t="s">
         <v>623</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>637</v>
+        <v>544</v>
       </c>
       <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
+      <c r="D103" s="30"/>
     </row>
     <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="33" t="s">
-        <v>623</v>
+      <c r="A104" s="35" t="s">
+        <v>638</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>544</v>
+        <v>639</v>
       </c>
       <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
+      <c r="D104" s="30"/>
     </row>
     <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A105" s="37" t="s">
+      <c r="A105" s="35" t="s">
         <v>638</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
+      <c r="D105" s="30"/>
     </row>
     <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="37" t="s">
+      <c r="A106" s="35" t="s">
         <v>638</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>640</v>
+        <v>563</v>
       </c>
       <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
+      <c r="D106" s="30"/>
     </row>
     <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="37" t="s">
+      <c r="A107" s="35" t="s">
         <v>638</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>563</v>
+        <v>641</v>
       </c>
       <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
+      <c r="D107" s="30"/>
     </row>
     <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="37" t="s">
+      <c r="A108" s="35" t="s">
         <v>638</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>641</v>
+        <v>548</v>
       </c>
       <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
+      <c r="D108" s="30"/>
     </row>
     <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="37" t="s">
+      <c r="A109" s="35" t="s">
         <v>638</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>548</v>
+        <v>642</v>
       </c>
       <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
+      <c r="D109" s="30"/>
     </row>
     <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="37" t="s">
+      <c r="A110" s="35" t="s">
         <v>638</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>642</v>
+        <v>554</v>
       </c>
       <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
+      <c r="D110" s="30"/>
     </row>
     <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A111" s="37" t="s">
+      <c r="A111" s="35" t="s">
         <v>638</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
+      <c r="D111" s="30"/>
     </row>
     <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="37" t="s">
+      <c r="A112" s="35" t="s">
         <v>638</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>553</v>
+        <v>643</v>
       </c>
       <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
+      <c r="D112" s="30"/>
     </row>
     <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A113" s="37" t="s">
+      <c r="A113" s="35" t="s">
         <v>638</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>643</v>
+        <v>550</v>
       </c>
       <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
+      <c r="D113" s="30"/>
     </row>
     <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="37" t="s">
-        <v>638</v>
+      <c r="A114" s="33" t="s">
+        <v>644</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>550</v>
+        <v>645</v>
       </c>
       <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
+      <c r="D114" s="30"/>
     </row>
     <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="33" t="s">
         <v>644</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
+      <c r="D115" s="30"/>
     </row>
     <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="33" t="s">
         <v>644</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
+      <c r="D116" s="30"/>
     </row>
     <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="33" t="s">
         <v>644</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
+      <c r="D117" s="30"/>
     </row>
     <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="33" t="s">
         <v>644</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
+      <c r="D118" s="30"/>
     </row>
     <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="33" t="s">
         <v>644</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
+      <c r="D119" s="30"/>
     </row>
     <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="33" t="s">
         <v>644</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
+      <c r="D120" s="30"/>
     </row>
     <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="33" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>651</v>
+        <v>483</v>
       </c>
       <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
+      <c r="D121" s="30"/>
     </row>
     <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="33" t="s">
         <v>652</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>483</v>
+        <v>653</v>
       </c>
       <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
+      <c r="D122" s="30"/>
     </row>
     <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="33" t="s">
         <v>652</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
+      <c r="D123" s="30"/>
     </row>
     <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="33" t="s">
         <v>652</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>654</v>
+        <v>484</v>
       </c>
       <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
+      <c r="D124" s="30"/>
     </row>
     <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="33" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>484</v>
+        <v>656</v>
       </c>
       <c r="C125" s="33"/>
-      <c r="D125" s="33"/>
+      <c r="D125" s="30"/>
     </row>
     <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="33" t="s">
         <v>655</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>656</v>
+        <v>585</v>
       </c>
       <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
+      <c r="D126" s="30"/>
     </row>
     <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="33" t="s">
         <v>655</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>585</v>
+        <v>657</v>
       </c>
       <c r="C127" s="33"/>
-      <c r="D127" s="33"/>
+      <c r="D127" s="30"/>
     </row>
     <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="33" t="s">
         <v>655</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>657</v>
+        <v>591</v>
       </c>
       <c r="C128" s="33"/>
-      <c r="D128" s="33"/>
+      <c r="D128" s="30"/>
     </row>
     <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="33" t="s">
         <v>655</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>591</v>
+        <v>658</v>
       </c>
       <c r="C129" s="33"/>
-      <c r="D129" s="33"/>
+      <c r="D129" s="30"/>
     </row>
     <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="33" t="s">
         <v>655</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C130" s="33"/>
-      <c r="D130" s="33"/>
+      <c r="D130" s="30"/>
     </row>
     <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="33" t="s">
         <v>655</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C131" s="33"/>
-      <c r="D131" s="33"/>
+      <c r="D131" s="30"/>
     </row>
     <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="33" t="s">
         <v>655</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
+      <c r="D132" s="30"/>
     </row>
     <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="33" t="s">
         <v>655</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
+      <c r="D133" s="30"/>
     </row>
     <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="33" t="s">
         <v>655</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C134" s="33"/>
-      <c r="D134" s="33"/>
+      <c r="D134" s="30"/>
     </row>
     <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="33" t="s">
         <v>655</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
+      <c r="D135" s="30"/>
     </row>
     <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="33" t="s">
         <v>655</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C136" s="33"/>
-      <c r="D136" s="33"/>
+      <c r="D136" s="30"/>
     </row>
     <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="33" t="s">
         <v>655</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>665</v>
+        <v>593</v>
       </c>
       <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
+      <c r="D137" s="30"/>
     </row>
     <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="33" t="s">
         <v>655</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>593</v>
+        <v>666</v>
       </c>
       <c r="C138" s="33"/>
-      <c r="D138" s="33"/>
+      <c r="D138" s="30"/>
     </row>
     <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="33" t="s">
         <v>655</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>666</v>
+        <v>594</v>
       </c>
       <c r="C139" s="33"/>
-      <c r="D139" s="33"/>
+      <c r="D139" s="30"/>
     </row>
     <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="33" t="s">
         <v>655</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C140" s="33"/>
-      <c r="D140" s="33"/>
+      <c r="D140" s="30"/>
     </row>
     <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="33" t="s">
         <v>655</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="C141" s="33"/>
-      <c r="D141" s="33"/>
+      <c r="D141" s="30"/>
     </row>
     <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="33" t="s">
         <v>655</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
+      <c r="D142" s="30"/>
     </row>
     <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="33" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>582</v>
+        <v>668</v>
       </c>
       <c r="C143" s="33"/>
-      <c r="D143" s="33"/>
+      <c r="D143" s="30"/>
     </row>
     <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="33" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>668</v>
+        <v>597</v>
       </c>
       <c r="C144" s="33"/>
-      <c r="D144" s="33"/>
+      <c r="D144" s="30"/>
     </row>
     <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="33" t="s">
         <v>669</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>597</v>
+        <v>670</v>
       </c>
       <c r="C145" s="33"/>
-      <c r="D145" s="33"/>
+      <c r="D145" s="30"/>
     </row>
     <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="33" t="s">
         <v>669</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
+      <c r="D146" s="30"/>
     </row>
     <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="33" t="s">
         <v>669</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C147" s="33"/>
-      <c r="D147" s="33"/>
+      <c r="D147" s="30"/>
     </row>
     <row r="148" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="33" t="s">
         <v>669</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>672</v>
+        <v>601</v>
       </c>
       <c r="C148" s="33"/>
-      <c r="D148" s="33"/>
+      <c r="D148" s="30"/>
     </row>
     <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="33" t="s">
         <v>669</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>601</v>
+        <v>673</v>
       </c>
       <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
+      <c r="D149" s="30"/>
     </row>
     <row r="150" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="33" t="s">
         <v>669</v>
       </c>
       <c r="B150" s="30" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C150" s="33"/>
-      <c r="D150" s="33"/>
+      <c r="D150" s="30"/>
     </row>
     <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="33" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="B151" s="30" t="s">
-        <v>674</v>
+        <v>605</v>
       </c>
       <c r="C151" s="33"/>
-      <c r="D151" s="33"/>
+      <c r="D151" s="30"/>
     </row>
     <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="33" t="s">
         <v>675</v>
       </c>
       <c r="B152" s="30" t="s">
-        <v>605</v>
+        <v>676</v>
       </c>
       <c r="C152" s="33"/>
-      <c r="D152" s="33"/>
+      <c r="D152" s="30"/>
     </row>
     <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="33" t="s">
         <v>675</v>
       </c>
       <c r="B153" s="30" t="s">
-        <v>676</v>
+        <v>609</v>
       </c>
       <c r="C153" s="33"/>
-      <c r="D153" s="33"/>
+      <c r="D153" s="30"/>
     </row>
     <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="33" t="s">
         <v>675</v>
       </c>
       <c r="B154" s="30" t="s">
-        <v>609</v>
+        <v>677</v>
       </c>
       <c r="C154" s="33"/>
-      <c r="D154" s="33"/>
+      <c r="D154" s="30"/>
     </row>
     <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="33" t="s">
         <v>675</v>
       </c>
       <c r="B155" s="30" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C155" s="33"/>
-      <c r="D155" s="33"/>
+      <c r="D155" s="30"/>
     </row>
     <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="33" t="s">
         <v>675</v>
       </c>
       <c r="B156" s="30" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C156" s="33"/>
-      <c r="D156" s="33"/>
+      <c r="D156" s="30"/>
     </row>
     <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="33" t="s">
         <v>675</v>
       </c>
       <c r="B157" s="30" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C157" s="33"/>
-      <c r="D157" s="33"/>
+      <c r="D157" s="30"/>
     </row>
     <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="33" t="s">
         <v>675</v>
       </c>
       <c r="B158" s="30" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C158" s="33"/>
-      <c r="D158" s="33"/>
+      <c r="D158" s="30"/>
     </row>
     <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="33" t="s">
         <v>675</v>
       </c>
       <c r="B159" s="30" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
+      <c r="D159" s="30"/>
     </row>
     <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="33" t="s">
         <v>675</v>
       </c>
       <c r="B160" s="30" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C160" s="33"/>
-      <c r="D160" s="33"/>
+      <c r="D160" s="30"/>
     </row>
     <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="33" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="B161" s="30" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C161" s="33"/>
-      <c r="D161" s="33"/>
+      <c r="D161" s="30"/>
     </row>
     <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="33" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="B162" s="30" t="s">
-        <v>684</v>
+        <v>613</v>
       </c>
       <c r="C162" s="33"/>
-      <c r="D162" s="33"/>
+      <c r="D162" s="30"/>
     </row>
     <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="33" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="B163" s="30" t="s">
-        <v>685</v>
+        <v>616</v>
       </c>
       <c r="C163" s="33"/>
-      <c r="D163" s="33"/>
+      <c r="D163" s="30"/>
     </row>
     <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="B164" s="30" t="s">
         <v>686</v>
       </c>
-      <c r="B164" s="30" t="s">
-        <v>687</v>
-      </c>
       <c r="C164" s="33"/>
-      <c r="D164" s="33"/>
+      <c r="D164" s="30"/>
     </row>
     <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="33" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B165" s="30" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C165" s="33"/>
-      <c r="D165" s="33"/>
+      <c r="D165" s="30"/>
     </row>
     <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A166" s="33" t="s">
-        <v>686</v>
+      <c r="A166" s="32" t="s">
+        <v>687</v>
       </c>
       <c r="B166" s="30" t="s">
-        <v>616</v>
+        <v>688</v>
       </c>
       <c r="C166" s="33"/>
-      <c r="D166" s="33"/>
+      <c r="D166" s="30"/>
     </row>
     <row r="167" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A167" s="33" t="s">
-        <v>686</v>
+      <c r="A167" s="32" t="s">
+        <v>687</v>
       </c>
       <c r="B167" s="30" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C167" s="33"/>
-      <c r="D167" s="33"/>
+      <c r="D167" s="30"/>
     </row>
     <row r="168" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A168" s="33" t="s">
-        <v>686</v>
+      <c r="A168" s="32" t="s">
+        <v>687</v>
       </c>
       <c r="B168" s="30" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
       <c r="C168" s="33"/>
-      <c r="D168" s="33"/>
+      <c r="D168" s="30"/>
     </row>
     <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A169" s="33" t="s">
-        <v>689</v>
+      <c r="A169" s="32" t="s">
+        <v>687</v>
       </c>
       <c r="B169" s="30" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
+      <c r="D169" s="30"/>
     </row>
     <row r="170" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A170" s="33" t="s">
-        <v>689</v>
+      <c r="A170" s="32" t="s">
+        <v>687</v>
       </c>
       <c r="B170" s="30" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C170" s="33"/>
-      <c r="D170" s="33"/>
+      <c r="D170" s="30"/>
     </row>
     <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A171" s="33" t="s">
-        <v>689</v>
+      <c r="A171" s="32" t="s">
+        <v>687</v>
       </c>
       <c r="B171" s="30" t="s">
-        <v>620</v>
+        <v>693</v>
       </c>
       <c r="C171" s="33"/>
-      <c r="D171" s="33"/>
+      <c r="D171" s="30"/>
     </row>
     <row r="172" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A172" s="33" t="s">
-        <v>689</v>
+      <c r="A172" s="32" t="s">
+        <v>687</v>
       </c>
       <c r="B172" s="30" t="s">
-        <v>621</v>
+        <v>694</v>
       </c>
       <c r="C172" s="33"/>
-      <c r="D172" s="33"/>
+      <c r="D172" s="30"/>
     </row>
     <row r="173" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="32" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B173" s="30" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C173" s="33"/>
-      <c r="D173" s="33"/>
+      <c r="D173" s="30"/>
     </row>
     <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="32" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B174" s="30" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C174" s="33"/>
-      <c r="D174" s="33"/>
+      <c r="D174" s="30"/>
     </row>
     <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="32" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B175" s="30" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C175" s="33"/>
-      <c r="D175" s="33"/>
+      <c r="D175" s="30"/>
     </row>
     <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="32" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B176" s="30" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C176" s="33"/>
-      <c r="D176" s="33"/>
+      <c r="D176" s="30"/>
     </row>
     <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="32" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B177" s="30" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C177" s="33"/>
-      <c r="D177" s="33"/>
+      <c r="D177" s="30"/>
     </row>
     <row r="178" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="32" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B178" s="30" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C178" s="33"/>
-      <c r="D178" s="33"/>
+      <c r="D178" s="30"/>
     </row>
     <row r="179" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="32" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B179" s="30" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C179" s="33"/>
-      <c r="D179" s="33"/>
+      <c r="D179" s="30"/>
     </row>
     <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="32" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B180" s="30" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C180" s="33"/>
-      <c r="D180" s="33"/>
+      <c r="D180" s="30"/>
     </row>
     <row r="181" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="32" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B181" s="30" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
+      <c r="D181" s="30"/>
     </row>
     <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="32" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B182" s="30" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C182" s="33"/>
-      <c r="D182" s="33"/>
+      <c r="D182" s="30"/>
     </row>
     <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="32" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B183" s="30" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C183" s="33"/>
-      <c r="D183" s="33"/>
+      <c r="D183" s="30"/>
     </row>
     <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="32" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="B184" s="30" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C184" s="33"/>
-      <c r="D184" s="33"/>
+      <c r="D184" s="30"/>
     </row>
     <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="32" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="B185" s="30" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C185" s="33"/>
-      <c r="D185" s="33"/>
+      <c r="D185" s="30"/>
     </row>
     <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="32" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="B186" s="30" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C186" s="33"/>
-      <c r="D186" s="33"/>
+      <c r="D186" s="30"/>
     </row>
     <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="32" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="B187" s="30" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C187" s="33"/>
-      <c r="D187" s="33"/>
+      <c r="D187" s="30"/>
     </row>
     <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188" s="32" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="B188" s="30" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C188" s="33"/>
-      <c r="D188" s="33"/>
+      <c r="D188" s="30"/>
     </row>
     <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A189" s="32" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="B189" s="30" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C189" s="33"/>
-      <c r="D189" s="33"/>
+      <c r="D189" s="30"/>
     </row>
     <row r="190" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A190" s="32" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="B190" s="30" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C190" s="33"/>
-      <c r="D190" s="33"/>
+      <c r="D190" s="30"/>
     </row>
     <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A191" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B191" s="30" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C191" s="33"/>
-      <c r="D191" s="33"/>
+      <c r="D191" s="30"/>
     </row>
     <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A192" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B192" s="30" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C192" s="33"/>
-      <c r="D192" s="33"/>
+      <c r="D192" s="30"/>
     </row>
     <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A193" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B193" s="30" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C193" s="33"/>
-      <c r="D193" s="33"/>
+      <c r="D193" s="30"/>
     </row>
     <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A194" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B194" s="30" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C194" s="33"/>
-      <c r="D194" s="33"/>
+      <c r="D194" s="30"/>
     </row>
     <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A195" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B195" s="30" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C195" s="33"/>
-      <c r="D195" s="33"/>
+      <c r="D195" s="30"/>
     </row>
     <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A196" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B196" s="30" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C196" s="33"/>
-      <c r="D196" s="33"/>
+      <c r="D196" s="30"/>
     </row>
     <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A197" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B197" s="30" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C197" s="33"/>
-      <c r="D197" s="33"/>
+      <c r="D197" s="30"/>
     </row>
     <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A198" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B198" s="30" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C198" s="33"/>
-      <c r="D198" s="33"/>
+      <c r="D198" s="30"/>
     </row>
     <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A199" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B199" s="30" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C199" s="33"/>
-      <c r="D199" s="33"/>
+      <c r="D199" s="30"/>
     </row>
     <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A200" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B200" s="30" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C200" s="33"/>
-      <c r="D200" s="33"/>
+      <c r="D200" s="30"/>
     </row>
     <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A201" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B201" s="30" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C201" s="33"/>
-      <c r="D201" s="33"/>
+      <c r="D201" s="30"/>
     </row>
     <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A202" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B202" s="30" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C202" s="33"/>
-      <c r="D202" s="33"/>
+      <c r="D202" s="30"/>
     </row>
     <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A203" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B203" s="30" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C203" s="33"/>
-      <c r="D203" s="33"/>
+      <c r="D203" s="30"/>
     </row>
     <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A204" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B204" s="30" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C204" s="33"/>
-      <c r="D204" s="33"/>
+      <c r="D204" s="30"/>
     </row>
     <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A205" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B205" s="30" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C205" s="33"/>
-      <c r="D205" s="33"/>
+      <c r="D205" s="30"/>
     </row>
     <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A206" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B206" s="30" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C206" s="33"/>
-      <c r="D206" s="33"/>
+      <c r="D206" s="30"/>
     </row>
     <row r="207" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A207" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B207" s="30" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C207" s="33"/>
-      <c r="D207" s="33"/>
+      <c r="D207" s="30"/>
     </row>
     <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A208" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B208" s="30" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C208" s="33"/>
-      <c r="D208" s="33"/>
+      <c r="D208" s="30"/>
     </row>
     <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A209" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B209" s="30" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C209" s="33"/>
-      <c r="D209" s="33"/>
+      <c r="D209" s="30"/>
     </row>
     <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A210" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B210" s="30" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C210" s="33"/>
-      <c r="D210" s="33"/>
+      <c r="D210" s="30"/>
     </row>
     <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A211" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B211" s="30" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C211" s="33"/>
-      <c r="D211" s="33"/>
+      <c r="D211" s="30"/>
     </row>
     <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A212" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B212" s="30" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C212" s="33"/>
-      <c r="D212" s="33"/>
+      <c r="D212" s="30"/>
     </row>
     <row r="213" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A213" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B213" s="30" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C213" s="33"/>
-      <c r="D213" s="33"/>
+      <c r="D213" s="30"/>
     </row>
     <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A214" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B214" s="30" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C214" s="33"/>
-      <c r="D214" s="33"/>
+      <c r="D214" s="30"/>
     </row>
     <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A215" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B215" s="30" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C215" s="33"/>
-      <c r="D215" s="33"/>
+      <c r="D215" s="30"/>
     </row>
     <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A216" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B216" s="30" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C216" s="33"/>
-      <c r="D216" s="33"/>
-    </row>
-    <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A217" s="32" t="s">
-        <v>711</v>
-      </c>
-      <c r="B217" s="30" t="s">
-        <v>737</v>
-      </c>
-      <c r="C217" s="33"/>
-      <c r="D217" s="33"/>
-    </row>
-    <row r="218" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A218" s="32" t="s">
-        <v>711</v>
-      </c>
-      <c r="B218" s="30" t="s">
-        <v>738</v>
-      </c>
-      <c r="C218" s="33"/>
-      <c r="D218" s="33"/>
-    </row>
-    <row r="219" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A219" s="32" t="s">
-        <v>711</v>
-      </c>
-      <c r="B219" s="30" t="s">
-        <v>739</v>
-      </c>
-      <c r="C219" s="33"/>
-      <c r="D219" s="33"/>
-    </row>
-    <row r="220" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A220" s="32" t="s">
-        <v>711</v>
-      </c>
-      <c r="B220" s="30" t="s">
-        <v>740</v>
-      </c>
-      <c r="C220" s="33"/>
-      <c r="D220" s="33"/>
-    </row>
-    <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A221" s="32" t="s">
-        <v>711</v>
-      </c>
-      <c r="B221" s="30" t="s">
-        <v>741</v>
-      </c>
-      <c r="C221" s="33"/>
-      <c r="D221" s="33"/>
-    </row>
-    <row r="222" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A222" s="32" t="s">
-        <v>711</v>
-      </c>
-      <c r="B222" s="30" t="s">
-        <v>742</v>
-      </c>
-      <c r="C222" s="33"/>
-      <c r="D222" s="33"/>
-    </row>
-    <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A223" s="32" t="s">
-        <v>711</v>
-      </c>
-      <c r="B223" s="30" t="s">
-        <v>743</v>
-      </c>
-      <c r="C223" s="33"/>
-      <c r="D223" s="33"/>
+      <c r="D216" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
@@ -10510,8 +10582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -10546,11 +10618,11 @@
       <c r="B2" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="44">
         <v>42267</v>
       </c>
-      <c r="D2" s="48" t="s">
-        <v>1062</v>
+      <c r="D2" s="46" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -10560,11 +10632,11 @@
       <c r="B3" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="44">
         <v>42267</v>
       </c>
-      <c r="D3" s="48" t="s">
-        <v>1061</v>
+      <c r="D3" s="46" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -10572,13 +10644,13 @@
         <v>350</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C4" s="46">
+        <v>1057</v>
+      </c>
+      <c r="C4" s="44">
         <v>42267</v>
       </c>
-      <c r="D4" s="47" t="s">
-        <v>1065</v>
+      <c r="D4" s="45" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -10586,13 +10658,13 @@
         <v>350</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C5" s="46">
+        <v>1058</v>
+      </c>
+      <c r="C5" s="44">
         <v>42267</v>
       </c>
-      <c r="D5" s="47" t="s">
-        <v>1066</v>
+      <c r="D5" s="45" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -10602,11 +10674,11 @@
       <c r="B6" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="44">
         <v>42267</v>
       </c>
-      <c r="D6" s="47" t="s">
-        <v>1067</v>
+      <c r="D6" s="45" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -10616,11 +10688,11 @@
       <c r="B7" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="44">
         <v>42267</v>
       </c>
-      <c r="D7" s="48" t="s">
-        <v>1068</v>
+      <c r="D7" s="46" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -10630,11 +10702,11 @@
       <c r="B8" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="44">
         <v>42267</v>
       </c>
-      <c r="D8" s="48" t="s">
-        <v>1069</v>
+      <c r="D8" s="46" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -10644,11 +10716,11 @@
       <c r="B9" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="44">
         <v>42267</v>
       </c>
-      <c r="D9" s="48" t="s">
-        <v>1070</v>
+      <c r="D9" s="46" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="66" x14ac:dyDescent="0.3">
@@ -10658,11 +10730,11 @@
       <c r="B10" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="44">
         <v>42267</v>
       </c>
-      <c r="D10" s="48" t="s">
-        <v>1071</v>
+      <c r="D10" s="46" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -10672,11 +10744,11 @@
       <c r="B11" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="44">
         <v>42267</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>1072</v>
+      <c r="D11" s="46" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -10687,7 +10759,7 @@
         <v>361</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="47"/>
+      <c r="D12" s="45"/>
     </row>
     <row r="13" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
@@ -10697,8 +10769,8 @@
         <v>362</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="48" t="s">
-        <v>1073</v>
+      <c r="D13" s="46" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -10709,7 +10781,7 @@
         <v>363</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="47"/>
+      <c r="D14" s="45"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
@@ -10719,7 +10791,7 @@
         <v>365</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="47"/>
+      <c r="D15" s="45"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
@@ -10776,11 +10848,11 @@
       <c r="B22" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="35">
         <v>42267</v>
       </c>
-      <c r="D22" s="41" t="s">
-        <v>1074</v>
+      <c r="D22" s="39" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
@@ -10790,11 +10862,11 @@
       <c r="B23" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="35">
         <v>42267</v>
       </c>
-      <c r="D23" s="41" t="s">
-        <v>1075</v>
+      <c r="D23" s="39" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.3">
@@ -10804,11 +10876,11 @@
       <c r="B24" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="35">
         <v>42267</v>
       </c>
-      <c r="D24" s="41" t="s">
-        <v>1076</v>
+      <c r="D24" s="39" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -10818,11 +10890,11 @@
       <c r="B25" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="35">
         <v>42267</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -10832,11 +10904,11 @@
       <c r="B26" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="35">
         <v>42267</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -10846,11 +10918,11 @@
       <c r="B27" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="35">
         <v>42267</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -10885,8 +10957,8 @@
         <v>388</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="48" t="s">
-        <v>1080</v>
+      <c r="D31" s="46" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -10897,7 +10969,7 @@
         <v>193</v>
       </c>
       <c r="C32" s="10"/>
-      <c r="D32" s="47"/>
+      <c r="D32" s="45"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
@@ -10907,7 +10979,7 @@
         <v>390</v>
       </c>
       <c r="C33" s="10"/>
-      <c r="D33" s="47"/>
+      <c r="D33" s="45"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
@@ -10917,7 +10989,7 @@
         <v>391</v>
       </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="47"/>
+      <c r="D34" s="45"/>
     </row>
     <row r="35" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
@@ -10926,11 +10998,11 @@
       <c r="B35" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="C35" s="46">
+      <c r="C35" s="44">
         <v>42267</v>
       </c>
-      <c r="D35" s="48" t="s">
-        <v>1081</v>
+      <c r="D35" s="46" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -10941,7 +11013,7 @@
         <v>395</v>
       </c>
       <c r="C36" s="10"/>
-      <c r="D36" s="47"/>
+      <c r="D36" s="45"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
@@ -10951,7 +11023,7 @@
         <v>397</v>
       </c>
       <c r="C37" s="10"/>
-      <c r="D37" s="47"/>
+      <c r="D37" s="45"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
@@ -10961,7 +11033,7 @@
         <v>399</v>
       </c>
       <c r="C38" s="10"/>
-      <c r="D38" s="47"/>
+      <c r="D38" s="45"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
@@ -10971,7 +11043,7 @@
         <v>401</v>
       </c>
       <c r="C39" s="10"/>
-      <c r="D39" s="47"/>
+      <c r="D39" s="45"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
@@ -10981,7 +11053,7 @@
         <v>402</v>
       </c>
       <c r="C40" s="10"/>
-      <c r="D40" s="47"/>
+      <c r="D40" s="45"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
@@ -10991,7 +11063,7 @@
         <v>404</v>
       </c>
       <c r="C41" s="10"/>
-      <c r="D41" s="47"/>
+      <c r="D41" s="45"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
@@ -11121,7 +11193,7 @@
         <v>428</v>
       </c>
       <c r="C57" s="10"/>
-      <c r="D57" s="47"/>
+      <c r="D57" s="45"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
@@ -11131,7 +11203,7 @@
         <v>429</v>
       </c>
       <c r="C58" s="10"/>
-      <c r="D58" s="47"/>
+      <c r="D58" s="45"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
@@ -11141,7 +11213,7 @@
         <v>431</v>
       </c>
       <c r="C59" s="10"/>
-      <c r="D59" s="47"/>
+      <c r="D59" s="45"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
@@ -11151,7 +11223,7 @@
         <v>433</v>
       </c>
       <c r="C60" s="10"/>
-      <c r="D60" s="47"/>
+      <c r="D60" s="45"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
@@ -11545,7 +11617,7 @@
         <v>496</v>
       </c>
       <c r="C109" s="10"/>
-      <c r="D109" s="47"/>
+      <c r="D109" s="45"/>
       <c r="E109" s="22"/>
       <c r="F109" s="22"/>
       <c r="G109" s="22"/>
@@ -11564,7 +11636,7 @@
         <v>497</v>
       </c>
       <c r="C110" s="10"/>
-      <c r="D110" s="47"/>
+      <c r="D110" s="45"/>
       <c r="E110" s="22"/>
       <c r="F110" s="22"/>
       <c r="G110" s="22"/>
@@ -11583,7 +11655,7 @@
         <v>498</v>
       </c>
       <c r="C111" s="10"/>
-      <c r="D111" s="47"/>
+      <c r="D111" s="45"/>
       <c r="E111" s="22"/>
       <c r="F111" s="22"/>
       <c r="G111" s="22"/>
@@ -11602,7 +11674,7 @@
         <v>499</v>
       </c>
       <c r="C112" s="10"/>
-      <c r="D112" s="47"/>
+      <c r="D112" s="45"/>
       <c r="E112" s="22"/>
       <c r="F112" s="22"/>
       <c r="G112" s="22"/>
@@ -11971,7 +12043,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.75" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.75" style="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.5" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="22" bestFit="1" customWidth="1"/>
@@ -11980,1216 +12052,1216 @@
   <sheetData>
     <row r="1" spans="1:4" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
+        <v>739</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>740</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>741</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
         <v>744</v>
       </c>
-      <c r="B1" s="34" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
         <v>745</v>
       </c>
-      <c r="C1" s="31" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>746</v>
       </c>
-      <c r="D1" s="34" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="37" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="37" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="37" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="37" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="39" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="37" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="39" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="37" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="37" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="37" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="37" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="39" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="37" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="37" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="37" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="39" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="37" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="39" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="37" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="39" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="37" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="39" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="37" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="39" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="37" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="39" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="37" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="39" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="37" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="39" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="37" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="39" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="37" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="39" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="37" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="39" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="37" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="39" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="37" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="39" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="37" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="39" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="37" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="39" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="37" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="39" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="37" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="39" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="37" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="39" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="37" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="39" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="37" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="39" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="37" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="39" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="37" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="39" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="37" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="39" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="37" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="39" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="37" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="39" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="37" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="39" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="37" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="39" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="37" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="39" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="37" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="39" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="37" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="39" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="37" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="39" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="37" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="39" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="37" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="39" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="37" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="39" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="37" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="39" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="37" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="39" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="37" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="39" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="37" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="39" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="37" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="37" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="39" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="37" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="37" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="39" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="37" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="37" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="39" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="37" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="37" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="39" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="37" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="37" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="39" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="37" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="37" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="39" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="37" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="37" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="39" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="37" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="39" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="37" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="39" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="37" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="39" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="37" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="39" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="37" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="39" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="37" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="39" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="37" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="39" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="37" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="39" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="37" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="39" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="37" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="39" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="37" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="39" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="37" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="39" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="37" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="39" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="37" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="39" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="37" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="39" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="37" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="39" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="37" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="39" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="37" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="39" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="37" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="39" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="37" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="39" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="37" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="39" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="37" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="39" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="37" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="39" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="37" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="39" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="37" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="39" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="37" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="39" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="37" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="39" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="37" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="39" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="37" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="39" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="37" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="39" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="37" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="39" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="37" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="39" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="37" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="39" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="37" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="39" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="37" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="39" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="37" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="39" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="37" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="39" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="37" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="39" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="37" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="39" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="37" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="39" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="37" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="39" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="37" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="39" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="37" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="39" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="37" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="39" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="37" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="39" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="37" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="39" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="37" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="39" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="37" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="39" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="37" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="39" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="37" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="39" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="37" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="39" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="37" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="39" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="37" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="39" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="37" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="39" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="37" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="39" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="37" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="39" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="37" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="39" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="37" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="39" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="37" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="39" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="37" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="39" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="37" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="39" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="37" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="39" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="37" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="39" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="37" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="39" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="37" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="39" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="37" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="39" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="37" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="39" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="37" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="39" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="37" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="39" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="37" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="39" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="37" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="39" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="37" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="39" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="37" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="39" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="37" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="39" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="37" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="39" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="37" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="39" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="37" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="39" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="37" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="39" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="37" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="39" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="37" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="39" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="37" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="39" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="37" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="39" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="37" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="39" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="37" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="39" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="37" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="39" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="37" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="39" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="37" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="39" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="37" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="39" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="37" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="39" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="37" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="39" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="37" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="39" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="37" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="39" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="37" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="39" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="37" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="39" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="37" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="39" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="37" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="39" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="37" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="39" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="37" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="39" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="37" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="39" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="37" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="39" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="37" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="39" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="37" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="39" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="37" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="39" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="37" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="39" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="37" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="39" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="37" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="39" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="37" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="39" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="37" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="39" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="37" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="39" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="37" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="39" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="37" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="39" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="37" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="39" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="37" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="39" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="37" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="39" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="37" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="39" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="37" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="39" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="37" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="39" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="37" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="39" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="37" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="39" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="37" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="39" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="37" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="39" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="37" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="39" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="37" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" s="39" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="37" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" s="39" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="37" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="39" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="37" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" s="39" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="37" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" s="39" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="37" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" s="39" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="37" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" s="39" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="37" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" s="39" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="37" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" s="39" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="37" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" s="39" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="37" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" s="39" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="37" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="39" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="37" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" s="39" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="37" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" s="39" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="37" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" s="39" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="37" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" s="39" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="37" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" s="39" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="37" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" s="39" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="37" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" s="39" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="37" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" s="39" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="37" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" s="39" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="37" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" s="39" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="37" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" s="39" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="37" t="s">
         <v>981</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" s="39" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" s="39" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" s="39" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" s="39" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" s="39" t="s">
-        <v>986</v>
       </c>
     </row>
   </sheetData>

--- a/shyoo_20150920.xlsx
+++ b/shyoo_20150920.xlsx
@@ -8427,7 +8427,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>531</v>
       </c>
@@ -10584,7 +10584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/shyoo_20150920.xlsx
+++ b/shyoo_20150920.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19380" windowHeight="7980" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19380" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="진행률" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="1127">
   <si>
     <t>1-7</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1989,9 +1989,6 @@
     <t>void pthread_testcancel (void)</t>
   </si>
   <si>
-    <t>void pthread_cleanup_push</t>
-  </si>
-  <si>
     <t>5-5</t>
   </si>
   <si>
@@ -2142,18 +2139,6 @@
     <t>int pthread_attr_setstacksize(pthread_attr_t *attr, size_t statcksize)</t>
   </si>
   <si>
-    <t>int pthread_create(pthread_t *tid, const pthread_attr_t *attr, void *(*start) (void *), void *arg)</t>
-  </si>
-  <si>
-    <t>int pthread_equal(pthread_t t1, pthread_t t2)</t>
-  </si>
-  <si>
-    <t>void pthread_exit(void *value_ptr)</t>
-  </si>
-  <si>
-    <t>int pthread_join(pthread_t thread, void **value_ptr)</t>
-  </si>
-  <si>
     <t>int pthread_mutexattr_destroy(pthread_mutexattr_t *attr)</t>
   </si>
   <si>
@@ -2185,9 +2170,6 @@
   </si>
   <si>
     <t>9.3.6</t>
-  </si>
-  <si>
-    <t>int pthread_cancel(pthread_t thread)</t>
   </si>
   <si>
     <t>void pthread_cleanup_pop(int excute)</t>
@@ -3844,6 +3826,139 @@
   </si>
   <si>
     <t>뮤택스를 잠금해제상태로 요청 (위와 동일하다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-09-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 프로그램을 실행하고 자신은 종료한다. 첫번째 인자에 디렉토리와 파일 이름 전체
+두번째 인자에 명령, 세번째 인자에 명령에 대한 옵션을 적는다. 그 이후로 계속 아규먼트를 적으며 끝날때
+NULL을 넣어준다.  (실패 -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>execl()와 기능은 같으나 아규먼트를 나열하는게 아닌 배열로 두번째 인자에 받는다. (실패 -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경변수 목록 중 원하는 변수값을 구한다. (성공 : 환경변수의 값)
+(ex : HOME, SHELL, HOSTNAME)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>execl()과 기능은 같으나 마지막 인자로 환경변수를 넘길 수 있다.  (실패 -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>execl()과 기능은 같으나 첫번째 인자로 전체경로를 주면 수행까지 같이 한다. 두번째 인자에 아규먼트 배열
+세번째 인자에 환경변수를 담는다.   (실패 -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>execl()과 기능은 같으나 첫번째 인자에 실행파일명만 적는다. (환경변수에 등록되어있어야 실행한다.)
+실패 -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>execlp()와 기능은 같으나 아규먼트들을 두번째 인자에 배열로 받는다.  (실패 -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 프로그램을 실행하고 종료할 때까지 대기한다. (성공 0 / 실패 : 127 :/bin/sh을 위한 execve()호출 실패
+                                                                                             -1 : 127에러 제외한 다른 에러 발생)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시그널 여러 개를 한번에 사용하기 위하여 시그널 집합인 sigset_t 변수를 비워준다. (성공 0 / 실패 -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시그널 집합변수 sigset_t에 담겨진 시그널중 인자로 넣어진 시그널을 제거한다. (성공 0 / 실패 -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시그널 집합 변수 sigset_t에 시그널을 추가시킨다. (성공 0 / 실패 -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시그널 집합 변수에 모든 시그널을 넣는다. (성공 0 / 실패 -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시그널 집합 변수 sigset_t에 인자로 넣은 시그널이 존재하는지 확인한다. (1 : 시그널있다 / 0 : 시그널 없다 / -1 : 확인 실패)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시그널 신호를 무시하고 어떠한 일을 처리할 때 신호를 블록시키고 해당일을 처리하고 나중에 시그널을 처리할 수 있도
+록 한다. 즉, 어떠한 시그널이 발생해도 대기상태로 만들어준다. (성공 0 / 실패 -1)
+첫번째 인자에 의하여 블록 여부를 결정한다.
+SIG_BLOCK - 기존에 블록화된 시그널 집합에 두 번째 인수의 시그널 집합을 추가한다.
+SIG_UNBLOCK - 기본에 블록화된 시그널 집합에서 두번쨰 인수의 시그널 집합에 있는 시그널을 제거한다.
+SIG_SETMASK - 이전 블록된 시그널 집합을 모두 지우고 두 번째 인수인 set 시그널 집합으로 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블록된 시그널이 어떤것이 있는지 sigset_t인자값에 넣어준다. (성공 0 / 실패 -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스를 비정상적으로 종료시킨다. 시그널 SIGABRT를 발생시켜 종료시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준 출력 장치로 출력한 내용을 파이프를 통하여 다른 프로그램의 입력으로 전송시키기 위한 파이프를 연다.
+첫번째 인자 명령어, 두번째 인자 'r' 입력 'w'출력
+(성공 : 파일포인터 실패 : NULL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popen함수로 열었던 파이프를 닫는다. (성공: -1아닌 다른값 / 실패 : -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스레드 내부에서 자신의 스레드 ID를 알아낸다. (성공 : 해당 스레드ID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-09-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성된 쓰레드에 취소 요청을 보낸다. 그러나 쓰레드 내에서 취소 요청을 무시하거나 취소요청 시 다른 행동이 
+일어나도록 설정해 두면 그 설정을 시행하게 된다.   (성공 0 / 실패 오류번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막에 호출된 pthread_cleanup_push로 등록된 마무리 처리부를 스택에서 제거한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스레드가 pthread_exit를 호출하거나 취소 요청에 반응하거나, 스레드가 execute인수에 0이 아닌 값을 넣어서
+pthread_cleanup_pop함수를 호출했을때, push로 한 스텍에 등록한 지정된 함수를 불러 실행하게 된다.
+이 함수는 스택에 push시키는 함수다.
+만약 execute를 0으로해서 pop을 호출하면 마무리 처리부가 호출되지 않는다.
+또한 스레드 시동 루틴이 정상적으로 반한되어서 스레드가 종료된 경우 해당 마무리 처리부가 호출되지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init으로 만들어진 rwlock을 제거한다. (성공 0 /실패 오류번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutex lock unlock과 비슷하지만 조금 더 세밀한 제어가 가능하다.
+읽기모드, 쓰기모드로 잠김 잠기지 않음 세종류로 제어가 가능하다.
+쓰기 잠금의 경우는 한번에 하나의 스레드만 잠글 수 있지만, 읽기 잠금의 경우에는 동시에 여러 스레드가
+잠그고 있을 수 있다. 해당 함수는 초기화 하는 함수다. (성공 0 / 실패 오류번호)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5037,7 +5152,7 @@
   <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5056,24 +5171,24 @@
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="47"/>
       <c r="C2" s="48" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="E2" s="49" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G2" s="75" t="s">
         <v>1079</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G2" s="75" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="50" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="C3" s="51">
         <f>COUNTA(UNIX_API!$B$2:$B$500)</f>
@@ -5081,49 +5196,49 @@
       </c>
       <c r="D3" s="52">
         <f>COUNTA(UNIX_API!$C$2:$C$500)</f>
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E3" s="52">
         <f>COUNTA(UNIX_API!$E$2:$E$500)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="71">
         <f>(D3/C3)</f>
-        <v>0.29565217391304349</v>
+        <v>0.37391304347826088</v>
       </c>
       <c r="G3" s="76">
         <f>(D3-E3)/C3</f>
-        <v>0.2391304347826087</v>
+        <v>0.30869565217391304</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="C4" s="54">
-        <f>COUNTA(Thread_API!$B$2:$B$493)</f>
-        <v>215</v>
+        <f>COUNTA(Thread_API!$B$2:$B$487)</f>
+        <v>209</v>
       </c>
       <c r="D4" s="55">
-        <f>COUNTA(Thread_API!$C$2:$C$493)</f>
-        <v>10</v>
+        <f>COUNTA(Thread_API!$C$2:$C$487)</f>
+        <v>16</v>
       </c>
       <c r="E4" s="55">
-        <f>COUNTA(Thread_API!$E$2:$E$493)</f>
-        <v>0</v>
+        <f>COUNTA(Thread_API!$E$2:$E$487)</f>
+        <v>1</v>
       </c>
       <c r="F4" s="72">
         <f t="shared" ref="F4:F9" si="0">(D4/C4)</f>
-        <v>4.6511627906976744E-2</v>
+        <v>7.6555023923444973E-2</v>
       </c>
       <c r="G4" s="77">
         <f>(D4-E4)/C4</f>
-        <v>4.6511627906976744E-2</v>
+        <v>7.1770334928229665E-2</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="56" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C5" s="59">
         <f>COUNTA(UNIX_Network!$B$2:$B$500)</f>
@@ -5150,23 +5265,23 @@
       <c r="B6" s="68"/>
       <c r="C6" s="69">
         <f>SUM(C3:C5)</f>
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D6" s="69">
         <f t="shared" ref="D6:E6" si="1">SUM(D3:D5)</f>
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E6" s="69">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F6" s="74">
         <f t="shared" si="0"/>
-        <v>0.16493055555555555</v>
+        <v>0.20877192982456141</v>
       </c>
       <c r="G6" s="79">
         <f>(D6-E6)/C6</f>
-        <v>0.1423611111111111</v>
+        <v>0.18070175438596492</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5180,24 +5295,24 @@
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="47"/>
       <c r="C8" s="48" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="E8" s="49" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G8" s="81" t="s">
         <v>1079</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G8" s="81" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="60" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="C9" s="61">
         <f>COUNTA(Linux!$A$2:$A$500)</f>
@@ -5247,9 +5362,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I231"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -5257,7 +5372,7 @@
     <col min="1" max="1" width="9.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="59.125" style="16" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.125" style="38" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -5288,10 +5403,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="E2" s="15"/>
     </row>
@@ -5303,10 +5418,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -5461,13 +5576,13 @@
         <v>31</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -5478,13 +5593,13 @@
         <v>32</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -5495,13 +5610,13 @@
         <v>33</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
@@ -5512,10 +5627,10 @@
         <v>35</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="E20" s="15"/>
     </row>
@@ -5536,10 +5651,10 @@
         <v>39</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="E22" s="15"/>
     </row>
@@ -5551,10 +5666,10 @@
         <v>40</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="E23" s="15"/>
     </row>
@@ -5566,10 +5681,10 @@
         <v>42</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="E24" s="15"/>
     </row>
@@ -5581,10 +5696,10 @@
         <v>43</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="E25" s="15"/>
     </row>
@@ -5651,10 +5766,10 @@
         <v>51</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="E31" s="15"/>
     </row>
@@ -5666,10 +5781,10 @@
         <v>52</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="E32" s="15"/>
     </row>
@@ -5714,10 +5829,10 @@
         <v>59</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="E36" s="15"/>
     </row>
@@ -5729,10 +5844,10 @@
         <v>61</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="E37" s="15"/>
     </row>
@@ -5744,10 +5859,10 @@
         <v>62</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="E38" s="15"/>
     </row>
@@ -5759,10 +5874,10 @@
         <v>63</v>
       </c>
       <c r="C39" s="32" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D39" s="30" t="s">
         <v>1086</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>1092</v>
       </c>
       <c r="E39" s="15"/>
     </row>
@@ -5774,10 +5889,10 @@
         <v>64</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="E40" s="15"/>
     </row>
@@ -5866,10 +5981,10 @@
         <v>75</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E48" s="15"/>
     </row>
@@ -5881,10 +5996,10 @@
         <v>77</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="E49" s="15"/>
     </row>
@@ -5918,10 +6033,10 @@
         <v>80</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="E52" s="15"/>
     </row>
@@ -5933,10 +6048,10 @@
         <v>82</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E53" s="15"/>
     </row>
@@ -5948,10 +6063,10 @@
         <v>83</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="E54" s="15"/>
     </row>
@@ -5974,10 +6089,10 @@
         <v>85</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="E56" s="15"/>
     </row>
@@ -5989,10 +6104,10 @@
         <v>86</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="E57" s="15"/>
     </row>
@@ -6004,10 +6119,10 @@
         <v>87</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="E58" s="15"/>
     </row>
@@ -6030,10 +6145,10 @@
         <v>89</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="E60" s="15"/>
     </row>
@@ -6045,10 +6160,10 @@
         <v>90</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="E61" s="15"/>
     </row>
@@ -6060,10 +6175,10 @@
         <v>91</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="E62" s="15"/>
     </row>
@@ -6075,10 +6190,10 @@
         <v>93</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="E63" s="15"/>
     </row>
@@ -6101,10 +6216,10 @@
         <v>95</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="E65" s="15"/>
     </row>
@@ -6116,10 +6231,10 @@
         <v>96</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="E66" s="15"/>
     </row>
@@ -6153,10 +6268,10 @@
         <v>101</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="E69" s="15"/>
     </row>
@@ -6168,10 +6283,10 @@
         <v>102</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="E70" s="15"/>
     </row>
@@ -6183,10 +6298,10 @@
         <v>103</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="E71" s="15"/>
     </row>
@@ -6198,10 +6313,10 @@
         <v>105</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="E72" s="15"/>
     </row>
@@ -6213,10 +6328,10 @@
         <v>106</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="E73" s="15"/>
     </row>
@@ -6228,13 +6343,13 @@
         <v>107</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6245,13 +6360,13 @@
         <v>108</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -6262,10 +6377,10 @@
         <v>109</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="E76" s="15"/>
     </row>
@@ -6310,13 +6425,13 @@
         <v>113</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -6327,13 +6442,13 @@
         <v>114</v>
       </c>
       <c r="C81" s="32" t="s">
+        <v>981</v>
+      </c>
+      <c r="D81" s="28" t="s">
         <v>987</v>
       </c>
-      <c r="D81" s="28" t="s">
-        <v>993</v>
-      </c>
       <c r="E81" s="15" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6410,10 +6525,10 @@
         <v>124</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="D88" s="39" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="E88" s="15"/>
     </row>
@@ -6568,10 +6683,10 @@
         <v>142</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="E102" s="15"/>
     </row>
@@ -6594,10 +6709,10 @@
         <v>144</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E104" s="15"/>
     </row>
@@ -6631,10 +6746,10 @@
         <v>147</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="E107" s="15"/>
     </row>
@@ -6690,10 +6805,10 @@
         <v>154</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="D112" s="43" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="E112" s="15"/>
     </row>
@@ -6705,10 +6820,10 @@
         <v>155</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="E113" s="15"/>
     </row>
@@ -6720,10 +6835,10 @@
         <v>156</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E114" s="15"/>
     </row>
@@ -6735,22 +6850,26 @@
         <v>157</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="E115" s="15"/>
     </row>
-    <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>158</v>
       </c>
       <c r="B116" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C116" s="32"/>
-      <c r="D116" s="30"/>
+      <c r="C116" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>1102</v>
+      </c>
       <c r="E116" s="15"/>
     </row>
     <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6838,13 +6957,13 @@
         <v>171</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6855,13 +6974,13 @@
         <v>172</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6872,13 +6991,13 @@
         <v>173</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D126" s="30" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6900,13 +7019,13 @@
         <v>175</v>
       </c>
       <c r="C128" s="32" t="s">
+        <v>979</v>
+      </c>
+      <c r="D128" s="30" t="s">
+        <v>980</v>
+      </c>
+      <c r="E128" s="15" t="s">
         <v>985</v>
-      </c>
-      <c r="D128" s="30" t="s">
-        <v>986</v>
-      </c>
-      <c r="E128" s="15" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6928,13 +7047,13 @@
         <v>178</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6945,10 +7064,10 @@
         <v>180</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="E131" s="15"/>
     </row>
@@ -6960,10 +7079,10 @@
         <v>181</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="E132" s="15"/>
     </row>
@@ -6989,15 +7108,19 @@
       <c r="D134" s="30"/>
       <c r="E134" s="15"/>
     </row>
-    <row r="135" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>185</v>
       </c>
       <c r="B135" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="C135" s="32"/>
-      <c r="D135" s="30"/>
+      <c r="C135" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D135" s="28" t="s">
+        <v>1100</v>
+      </c>
       <c r="E135" s="15"/>
     </row>
     <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -7007,9 +7130,12 @@
       <c r="B136" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="C136" s="32"/>
-      <c r="D136" s="30"/>
-      <c r="E136" s="15"/>
+      <c r="C136" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D136" s="30" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="137" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
@@ -7018,30 +7144,44 @@
       <c r="B137" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C137" s="32"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="15"/>
-    </row>
-    <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C137" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D137" s="30" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E137" s="15" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>185</v>
       </c>
       <c r="B138" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C138" s="32"/>
-      <c r="D138" s="30"/>
+      <c r="C138" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D138" s="28" t="s">
+        <v>1105</v>
+      </c>
       <c r="E138" s="15"/>
     </row>
-    <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>185</v>
       </c>
       <c r="B139" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C139" s="32"/>
-      <c r="D139" s="30"/>
+      <c r="C139" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D139" s="28" t="s">
+        <v>1106</v>
+      </c>
       <c r="E139" s="15"/>
     </row>
     <row r="140" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -7051,8 +7191,12 @@
       <c r="B140" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C140" s="32"/>
-      <c r="D140" s="30"/>
+      <c r="C140" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D140" s="30" t="s">
+        <v>1107</v>
+      </c>
       <c r="E140" s="15"/>
     </row>
     <row r="141" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -7121,15 +7265,19 @@
       <c r="D146" s="30"/>
       <c r="E146" s="15"/>
     </row>
-    <row r="147" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>202</v>
       </c>
       <c r="B147" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="C147" s="32"/>
-      <c r="D147" s="30"/>
+      <c r="C147" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D147" s="28" t="s">
+        <v>1108</v>
+      </c>
       <c r="E147" s="15"/>
     </row>
     <row r="148" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -7140,10 +7288,10 @@
         <v>205</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="E148" s="15"/>
     </row>
@@ -7221,13 +7369,13 @@
         <v>219</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
@@ -7238,14 +7386,14 @@
         <v>221</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="E156" s="15"/>
       <c r="F156" s="1" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -7266,10 +7414,10 @@
         <v>224</v>
       </c>
       <c r="C158" s="32" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D158" s="28" t="s">
         <v>1038</v>
-      </c>
-      <c r="D158" s="28" t="s">
-        <v>1044</v>
       </c>
       <c r="E158" s="15"/>
     </row>
@@ -7281,10 +7429,10 @@
         <v>225</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="E159" s="15"/>
     </row>
@@ -7295,7 +7443,12 @@
       <c r="B160" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="C160" s="32"/>
+      <c r="C160" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D160" s="38" t="s">
+        <v>1109</v>
+      </c>
       <c r="E160" s="15"/>
     </row>
     <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -7305,8 +7458,12 @@
       <c r="B161" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="C161" s="32"/>
-      <c r="D161" s="30"/>
+      <c r="C161" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D161" s="30" t="s">
+        <v>1112</v>
+      </c>
       <c r="E161" s="15"/>
     </row>
     <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -7316,8 +7473,12 @@
       <c r="B162" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="C162" s="32"/>
-      <c r="D162" s="30"/>
+      <c r="C162" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D162" s="30" t="s">
+        <v>1110</v>
+      </c>
       <c r="E162" s="15"/>
     </row>
     <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -7327,8 +7488,12 @@
       <c r="B163" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="C163" s="32"/>
-      <c r="D163" s="30"/>
+      <c r="C163" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D163" s="30" t="s">
+        <v>1111</v>
+      </c>
       <c r="E163" s="15"/>
     </row>
     <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -7338,20 +7503,30 @@
       <c r="B164" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="C164" s="32"/>
-      <c r="D164" s="30"/>
+      <c r="C164" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D164" s="38" t="s">
+        <v>1113</v>
+      </c>
       <c r="E164" s="15"/>
     </row>
-    <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>232</v>
       </c>
       <c r="B165" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C165" s="32"/>
-      <c r="D165" s="30"/>
-      <c r="E165" s="15"/>
+      <c r="C165" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D165" s="28" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E165" s="15" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
@@ -7360,8 +7535,12 @@
       <c r="B166" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="C166" s="32"/>
-      <c r="D166" s="30"/>
+      <c r="C166" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D166" s="28" t="s">
+        <v>1115</v>
+      </c>
       <c r="E166" s="15"/>
     </row>
     <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -7404,8 +7583,12 @@
       <c r="B170" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C170" s="32"/>
-      <c r="D170" s="30"/>
+      <c r="C170" s="32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D170" s="30" t="s">
+        <v>1116</v>
+      </c>
       <c r="E170" s="15"/>
     </row>
     <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -7713,7 +7896,7 @@
       </c>
       <c r="C191" s="33"/>
       <c r="D191" s="28" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="E191" s="15"/>
       <c r="F191" s="8"/>
@@ -7870,19 +8053,23 @@
         <v>42266</v>
       </c>
       <c r="D202" s="28" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="E202" s="15"/>
     </row>
-    <row r="203" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A203" s="9" t="s">
         <v>293</v>
       </c>
       <c r="B203" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="C203" s="33"/>
-      <c r="D203" s="30"/>
+      <c r="C203" s="35">
+        <v>42270</v>
+      </c>
+      <c r="D203" s="28" t="s">
+        <v>1117</v>
+      </c>
       <c r="E203" s="15"/>
     </row>
     <row r="204" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -7892,8 +8079,12 @@
       <c r="B204" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="C204" s="33"/>
-      <c r="D204" s="30"/>
+      <c r="C204" s="35">
+        <v>42270</v>
+      </c>
+      <c r="D204" s="30" t="s">
+        <v>1118</v>
+      </c>
       <c r="E204" s="15"/>
     </row>
     <row r="205" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -7967,7 +8158,7 @@
         <v>42266</v>
       </c>
       <c r="D209" s="28" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="E209" s="20"/>
       <c r="F209" s="12"/>
@@ -7986,7 +8177,7 @@
         <v>42266</v>
       </c>
       <c r="D210" s="39" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="E210" s="20"/>
       <c r="F210" s="12"/>
@@ -8016,7 +8207,7 @@
         <v>305</v>
       </c>
       <c r="B212" s="18" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="C212" s="35">
         <v>42266</v>
@@ -8039,7 +8230,7 @@
         <v>42266</v>
       </c>
       <c r="D213" s="28" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="E213" s="20"/>
       <c r="F213" s="12"/>
@@ -8058,7 +8249,7 @@
         <v>42266</v>
       </c>
       <c r="D214" s="39" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="E214" s="20"/>
       <c r="F214" s="12"/>
@@ -8383,11 +8574,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:E210"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B165" sqref="B165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -8395,8 +8586,9 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="82.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="88.125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="91.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="13"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -8424,7 +8616,7 @@
         <v>42269</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -8438,7 +8630,7 @@
         <v>42269</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8462,7 +8654,7 @@
         <v>42269</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -8476,7 +8668,7 @@
         <v>42269</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -8490,7 +8682,7 @@
         <v>42269</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8504,7 +8696,7 @@
         <v>42269</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -8518,7 +8710,7 @@
         <v>42269</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8532,7 +8724,7 @@
         <v>42269</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -8546,7 +8738,7 @@
         <v>42269</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8560,7 +8752,7 @@
         <v>42269</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -8763,7 +8955,7 @@
       <c r="C32" s="32"/>
       <c r="D32" s="82"/>
     </row>
-    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
         <v>557</v>
       </c>
@@ -8772,7 +8964,7 @@
       </c>
       <c r="C33" s="32"/>
     </row>
-    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="32" t="s">
         <v>557</v>
       </c>
@@ -8781,7 +8973,7 @@
       </c>
       <c r="C34" s="32"/>
     </row>
-    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
         <v>557</v>
       </c>
@@ -8790,7 +8982,7 @@
       </c>
       <c r="C35" s="32"/>
     </row>
-    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
         <v>557</v>
       </c>
@@ -8799,16 +8991,21 @@
       </c>
       <c r="C36" s="32"/>
     </row>
-    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" s="32" t="s">
         <v>574</v>
       </c>
       <c r="B37" s="36" t="s">
         <v>575</v>
       </c>
-      <c r="C37" s="32"/>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C37" s="32" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
         <v>574</v>
       </c>
@@ -8817,7 +9014,7 @@
       </c>
       <c r="C38" s="32"/>
     </row>
-    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
         <v>574</v>
       </c>
@@ -8826,7 +9023,7 @@
       </c>
       <c r="C39" s="32"/>
     </row>
-    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
         <v>574</v>
       </c>
@@ -8835,225 +9032,226 @@
       </c>
       <c r="C40" s="32"/>
     </row>
-    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B41" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="C41" s="32"/>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="32" t="s">
         <v>579</v>
-      </c>
-      <c r="C41" s="32"/>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="32" t="s">
-        <v>580</v>
       </c>
       <c r="B42" s="36" t="s">
         <v>581</v>
       </c>
       <c r="C42" s="32"/>
     </row>
-    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>582</v>
       </c>
       <c r="C43" s="32"/>
     </row>
-    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B44" s="36" t="s">
         <v>583</v>
       </c>
       <c r="C44" s="32"/>
     </row>
-    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B45" s="36" t="s">
         <v>584</v>
       </c>
       <c r="C45" s="32"/>
     </row>
-    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B46" s="36" t="s">
         <v>585</v>
       </c>
       <c r="C46" s="32"/>
     </row>
-    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>586</v>
       </c>
       <c r="C47" s="32"/>
     </row>
-    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B48" s="36" t="s">
         <v>587</v>
       </c>
       <c r="C48" s="32"/>
     </row>
-    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="32" t="s">
-        <v>580</v>
-      </c>
-      <c r="B49" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="B49" s="30" t="s">
         <v>588</v>
       </c>
       <c r="C49" s="32"/>
     </row>
-    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="32" t="s">
-        <v>580</v>
-      </c>
-      <c r="B50" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="B50" s="36" t="s">
         <v>589</v>
       </c>
       <c r="C50" s="32"/>
     </row>
-    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B51" s="36" t="s">
         <v>590</v>
       </c>
       <c r="C51" s="32"/>
     </row>
-    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B52" s="36" t="s">
         <v>591</v>
       </c>
       <c r="C52" s="32"/>
     </row>
-    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B53" s="36" t="s">
         <v>592</v>
       </c>
       <c r="C53" s="32"/>
     </row>
-    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B54" s="36" t="s">
         <v>593</v>
       </c>
       <c r="C54" s="32"/>
     </row>
-    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>594</v>
       </c>
       <c r="C55" s="32"/>
     </row>
-    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="32" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="B56" s="36" t="s">
+        <v>596</v>
+      </c>
+      <c r="C56" s="32"/>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="32" t="s">
         <v>595</v>
-      </c>
-      <c r="C56" s="32"/>
-    </row>
-    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
-        <v>596</v>
       </c>
       <c r="B57" s="36" t="s">
         <v>597</v>
       </c>
       <c r="C57" s="32"/>
     </row>
-    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B58" s="36" t="s">
         <v>598</v>
       </c>
       <c r="C58" s="32"/>
     </row>
-    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B59" s="36" t="s">
         <v>599</v>
       </c>
       <c r="C59" s="32"/>
     </row>
-    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B60" s="36" t="s">
         <v>600</v>
       </c>
       <c r="C60" s="32"/>
     </row>
-    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B61" s="36" t="s">
         <v>601</v>
       </c>
       <c r="C61" s="32"/>
     </row>
-    <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B62" s="36" t="s">
         <v>602</v>
       </c>
       <c r="C62" s="32"/>
     </row>
-    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="32" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="B63" s="36" t="s">
+        <v>604</v>
+      </c>
+      <c r="C63" s="32"/>
+    </row>
+    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="32" t="s">
         <v>603</v>
-      </c>
-      <c r="C63" s="32"/>
-    </row>
-    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="32" t="s">
-        <v>604</v>
       </c>
       <c r="B64" s="36" t="s">
         <v>605</v>
       </c>
       <c r="C64" s="32"/>
+      <c r="D64" s="82"/>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B65" s="36" t="s">
         <v>606</v>
@@ -9063,7 +9261,7 @@
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B66" s="36" t="s">
         <v>607</v>
@@ -9073,7 +9271,7 @@
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B67" s="36" t="s">
         <v>608</v>
@@ -9083,7 +9281,7 @@
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B68" s="36" t="s">
         <v>609</v>
@@ -9093,7 +9291,7 @@
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B69" s="36" t="s">
         <v>610</v>
@@ -9103,7 +9301,7 @@
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B70" s="36" t="s">
         <v>611</v>
@@ -9113,7 +9311,7 @@
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="32" t="s">
-        <v>604</v>
+        <v>394</v>
       </c>
       <c r="B71" s="36" t="s">
         <v>612</v>
@@ -9129,7 +9327,7 @@
         <v>613</v>
       </c>
       <c r="C72" s="32"/>
-      <c r="D72" s="82"/>
+      <c r="D72" s="30"/>
     </row>
     <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="32" t="s">
@@ -9212,18 +9410,18 @@
       <c r="D80" s="30"/>
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="32" t="s">
-        <v>394</v>
-      </c>
-      <c r="B81" s="36" t="s">
+      <c r="A81" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="C81" s="32"/>
+      <c r="B81" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="C81" s="33"/>
       <c r="D81" s="30"/>
     </row>
     <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B82" s="30" t="s">
         <v>624</v>
@@ -9233,7 +9431,7 @@
     </row>
     <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B83" s="30" t="s">
         <v>625</v>
@@ -9243,27 +9441,27 @@
     </row>
     <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>626</v>
+        <v>566</v>
       </c>
       <c r="C84" s="33"/>
       <c r="D84" s="30"/>
     </row>
     <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>566</v>
+        <v>626</v>
       </c>
       <c r="C85" s="33"/>
       <c r="D85" s="30"/>
     </row>
     <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B86" s="30" t="s">
         <v>627</v>
@@ -9273,7 +9471,7 @@
     </row>
     <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B87" s="30" t="s">
         <v>628</v>
@@ -9283,247 +9481,259 @@
     </row>
     <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>629</v>
+        <v>536</v>
       </c>
       <c r="C88" s="33"/>
       <c r="D88" s="30"/>
     </row>
     <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>630</v>
-      </c>
-      <c r="C89" s="33"/>
-      <c r="D89" s="30"/>
+        <v>477</v>
+      </c>
+      <c r="C89" s="35">
+        <v>42270</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>1119</v>
+      </c>
     </row>
     <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>536</v>
+        <v>629</v>
       </c>
       <c r="C90" s="33"/>
       <c r="D90" s="30"/>
     </row>
     <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C91" s="33"/>
       <c r="D91" s="30"/>
     </row>
     <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>632</v>
+        <v>558</v>
       </c>
       <c r="C92" s="33"/>
       <c r="D92" s="30"/>
     </row>
     <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>633</v>
+        <v>561</v>
       </c>
       <c r="C93" s="33"/>
       <c r="D93" s="30"/>
     </row>
     <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>477</v>
+        <v>541</v>
       </c>
       <c r="C94" s="33"/>
       <c r="D94" s="30"/>
     </row>
     <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C95" s="33"/>
       <c r="D95" s="30"/>
     </row>
     <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>635</v>
+        <v>543</v>
       </c>
       <c r="C96" s="33"/>
       <c r="D96" s="30"/>
     </row>
     <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>558</v>
+        <v>632</v>
       </c>
       <c r="C97" s="33"/>
       <c r="D97" s="30"/>
     </row>
     <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="33" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="C98" s="33"/>
       <c r="D98" s="30"/>
     </row>
     <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="33" t="s">
-        <v>623</v>
+      <c r="A99" s="35" t="s">
+        <v>633</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>541</v>
+        <v>634</v>
       </c>
       <c r="C99" s="33"/>
       <c r="D99" s="30"/>
     </row>
     <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="33" t="s">
-        <v>623</v>
+      <c r="A100" s="35" t="s">
+        <v>633</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C100" s="33"/>
       <c r="D100" s="30"/>
     </row>
     <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A101" s="33" t="s">
-        <v>623</v>
+      <c r="A101" s="35" t="s">
+        <v>633</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="C101" s="33"/>
       <c r="D101" s="30"/>
     </row>
     <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A102" s="33" t="s">
-        <v>623</v>
+      <c r="A102" s="35" t="s">
+        <v>633</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C102" s="33"/>
       <c r="D102" s="30"/>
     </row>
     <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="33" t="s">
-        <v>623</v>
+      <c r="A103" s="35" t="s">
+        <v>633</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C103" s="33"/>
       <c r="D103" s="30"/>
     </row>
     <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="35" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C104" s="33"/>
       <c r="D104" s="30"/>
     </row>
     <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="35" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>640</v>
+        <v>554</v>
       </c>
       <c r="C105" s="33"/>
       <c r="D105" s="30"/>
     </row>
     <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="35" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C106" s="33"/>
       <c r="D106" s="30"/>
     </row>
     <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="35" t="s">
+        <v>633</v>
+      </c>
+      <c r="B107" s="30" t="s">
         <v>638</v>
-      </c>
-      <c r="B107" s="30" t="s">
-        <v>641</v>
       </c>
       <c r="C107" s="33"/>
       <c r="D107" s="30"/>
     </row>
     <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="35" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C108" s="33"/>
       <c r="D108" s="30"/>
     </row>
     <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="35" t="s">
-        <v>638</v>
+      <c r="A109" s="33" t="s">
+        <v>639</v>
       </c>
       <c r="B109" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="C109" s="35">
+        <v>42270</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A110" s="33" t="s">
+        <v>639</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="C110" s="32" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D110" s="39" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A111" s="33" t="s">
+        <v>639</v>
+      </c>
+      <c r="B111" s="30" t="s">
         <v>642</v>
-      </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="30"/>
-    </row>
-    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="35" t="s">
-        <v>638</v>
-      </c>
-      <c r="B110" s="30" t="s">
-        <v>554</v>
-      </c>
-      <c r="C110" s="33"/>
-      <c r="D110" s="30"/>
-    </row>
-    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A111" s="35" t="s">
-        <v>638</v>
-      </c>
-      <c r="B111" s="30" t="s">
-        <v>553</v>
       </c>
       <c r="C111" s="33"/>
       <c r="D111" s="30"/>
     </row>
     <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="35" t="s">
-        <v>638</v>
+      <c r="A112" s="33" t="s">
+        <v>639</v>
       </c>
       <c r="B112" s="30" t="s">
         <v>643</v>
@@ -9532,18 +9742,18 @@
       <c r="D112" s="30"/>
     </row>
     <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A113" s="35" t="s">
-        <v>638</v>
+      <c r="A113" s="33" t="s">
+        <v>639</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>550</v>
+        <v>644</v>
       </c>
       <c r="C113" s="33"/>
       <c r="D113" s="30"/>
     </row>
     <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="33" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B114" s="30" t="s">
         <v>645</v>
@@ -9553,17 +9763,17 @@
     </row>
     <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="33" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>646</v>
+        <v>483</v>
       </c>
       <c r="C115" s="33"/>
       <c r="D115" s="30"/>
     </row>
     <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="33" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B116" s="30" t="s">
         <v>647</v>
@@ -9573,7 +9783,7 @@
     </row>
     <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="33" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B117" s="30" t="s">
         <v>648</v>
@@ -9583,17 +9793,17 @@
     </row>
     <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="33" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>649</v>
+        <v>484</v>
       </c>
       <c r="C118" s="33"/>
       <c r="D118" s="30"/>
     </row>
     <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="33" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="B119" s="30" t="s">
         <v>650</v>
@@ -9603,97 +9813,97 @@
     </row>
     <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="33" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>651</v>
+        <v>584</v>
       </c>
       <c r="C120" s="33"/>
       <c r="D120" s="30"/>
     </row>
     <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="33" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>483</v>
+        <v>651</v>
       </c>
       <c r="C121" s="33"/>
       <c r="D121" s="30"/>
     </row>
     <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="33" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>653</v>
+        <v>590</v>
       </c>
       <c r="C122" s="33"/>
       <c r="D122" s="30"/>
     </row>
     <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="33" t="s">
+        <v>649</v>
+      </c>
+      <c r="B123" s="30" t="s">
         <v>652</v>
-      </c>
-      <c r="B123" s="30" t="s">
-        <v>654</v>
       </c>
       <c r="C123" s="33"/>
       <c r="D123" s="30"/>
     </row>
     <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="33" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>484</v>
+        <v>653</v>
       </c>
       <c r="C124" s="33"/>
       <c r="D124" s="30"/>
     </row>
     <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="33" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C125" s="33"/>
       <c r="D125" s="30"/>
     </row>
     <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="33" t="s">
+        <v>649</v>
+      </c>
+      <c r="B126" s="30" t="s">
         <v>655</v>
-      </c>
-      <c r="B126" s="30" t="s">
-        <v>585</v>
       </c>
       <c r="C126" s="33"/>
       <c r="D126" s="30"/>
     </row>
     <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="33" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C127" s="33"/>
       <c r="D127" s="30"/>
     </row>
     <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="33" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>591</v>
+        <v>657</v>
       </c>
       <c r="C128" s="33"/>
       <c r="D128" s="30"/>
     </row>
     <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="33" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B129" s="30" t="s">
         <v>658</v>
@@ -9703,7 +9913,7 @@
     </row>
     <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="33" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B130" s="30" t="s">
         <v>659</v>
@@ -9713,140 +9923,140 @@
     </row>
     <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="33" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>660</v>
+        <v>592</v>
       </c>
       <c r="C131" s="33"/>
       <c r="D131" s="30"/>
     </row>
     <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="33" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C132" s="33"/>
       <c r="D132" s="30"/>
     </row>
     <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="33" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>662</v>
+        <v>593</v>
       </c>
       <c r="C133" s="33"/>
       <c r="D133" s="30"/>
     </row>
     <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="33" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>663</v>
+        <v>589</v>
       </c>
       <c r="C134" s="33"/>
       <c r="D134" s="30"/>
     </row>
     <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="33" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>664</v>
+        <v>580</v>
       </c>
       <c r="C135" s="33"/>
       <c r="D135" s="30"/>
     </row>
     <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="33" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>665</v>
+        <v>581</v>
       </c>
       <c r="C136" s="33"/>
       <c r="D136" s="30"/>
     </row>
     <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="33" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>593</v>
+        <v>662</v>
       </c>
       <c r="C137" s="33"/>
       <c r="D137" s="30"/>
     </row>
     <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="33" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>666</v>
+        <v>596</v>
       </c>
       <c r="C138" s="33"/>
       <c r="D138" s="30"/>
     </row>
     <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="33" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
       <c r="C139" s="33"/>
       <c r="D139" s="30"/>
     </row>
     <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="33" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>590</v>
+        <v>665</v>
       </c>
       <c r="C140" s="33"/>
       <c r="D140" s="30"/>
     </row>
     <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="33" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>581</v>
+        <v>666</v>
       </c>
       <c r="C141" s="33"/>
       <c r="D141" s="30"/>
     </row>
     <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="33" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="C142" s="33"/>
       <c r="D142" s="30"/>
     </row>
     <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="33" t="s">
+        <v>663</v>
+      </c>
+      <c r="B143" s="30" t="s">
         <v>667</v>
-      </c>
-      <c r="B143" s="30" t="s">
-        <v>668</v>
       </c>
       <c r="C143" s="33"/>
       <c r="D143" s="30"/>
     </row>
     <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="33" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>597</v>
+        <v>668</v>
       </c>
       <c r="C144" s="33"/>
       <c r="D144" s="30"/>
@@ -9856,7 +10066,7 @@
         <v>669</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>670</v>
+        <v>604</v>
       </c>
       <c r="C145" s="33"/>
       <c r="D145" s="30"/>
@@ -9866,7 +10076,7 @@
         <v>669</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C146" s="33"/>
       <c r="D146" s="30"/>
@@ -9876,7 +10086,7 @@
         <v>669</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>672</v>
+        <v>608</v>
       </c>
       <c r="C147" s="33"/>
       <c r="D147" s="30"/>
@@ -9886,7 +10096,7 @@
         <v>669</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>601</v>
+        <v>671</v>
       </c>
       <c r="C148" s="33"/>
       <c r="D148" s="30"/>
@@ -9896,7 +10106,7 @@
         <v>669</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C149" s="33"/>
       <c r="D149" s="30"/>
@@ -9906,44 +10116,44 @@
         <v>669</v>
       </c>
       <c r="B150" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C150" s="33"/>
       <c r="D150" s="30"/>
     </row>
     <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="33" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B151" s="30" t="s">
-        <v>605</v>
+        <v>674</v>
       </c>
       <c r="C151" s="33"/>
       <c r="D151" s="30"/>
     </row>
     <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="33" t="s">
+        <v>669</v>
+      </c>
+      <c r="B152" s="30" t="s">
         <v>675</v>
-      </c>
-      <c r="B152" s="30" t="s">
-        <v>676</v>
       </c>
       <c r="C152" s="33"/>
       <c r="D152" s="30"/>
     </row>
     <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="33" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B153" s="30" t="s">
-        <v>609</v>
+        <v>676</v>
       </c>
       <c r="C153" s="33"/>
       <c r="D153" s="30"/>
     </row>
     <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="33" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B154" s="30" t="s">
         <v>677</v>
@@ -9953,97 +10163,108 @@
     </row>
     <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="33" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B155" s="30" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C155" s="33"/>
       <c r="D155" s="30"/>
     </row>
     <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="33" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B156" s="30" t="s">
-        <v>679</v>
+        <v>612</v>
       </c>
       <c r="C156" s="33"/>
       <c r="D156" s="30"/>
     </row>
     <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="33" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B157" s="30" t="s">
-        <v>680</v>
+        <v>615</v>
       </c>
       <c r="C157" s="33"/>
       <c r="D157" s="30"/>
     </row>
     <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="33" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B158" s="30" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C158" s="33"/>
       <c r="D158" s="30"/>
     </row>
     <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="33" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B159" s="30" t="s">
-        <v>682</v>
+        <v>614</v>
       </c>
       <c r="C159" s="33"/>
       <c r="D159" s="30"/>
     </row>
     <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A160" s="33" t="s">
-        <v>675</v>
+      <c r="A160" s="32" t="s">
+        <v>681</v>
       </c>
       <c r="B160" s="30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C160" s="33"/>
       <c r="D160" s="30"/>
     </row>
-    <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A161" s="33" t="s">
-        <v>684</v>
+    <row r="161" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A161" s="32" t="s">
+        <v>681</v>
       </c>
       <c r="B161" s="30" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C161" s="33"/>
       <c r="D161" s="30"/>
     </row>
-    <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A162" s="33" t="s">
+    <row r="162" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="A162" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="B162" s="30" t="s">
         <v>684</v>
       </c>
-      <c r="B162" s="30" t="s">
-        <v>613</v>
-      </c>
-      <c r="C162" s="33"/>
-      <c r="D162" s="30"/>
-    </row>
-    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A163" s="33" t="s">
-        <v>684</v>
+      <c r="C162" s="35">
+        <v>42270</v>
+      </c>
+      <c r="D162" s="28" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A163" s="32" t="s">
+        <v>681</v>
       </c>
       <c r="B163" s="30" t="s">
-        <v>616</v>
-      </c>
-      <c r="C163" s="33"/>
-      <c r="D163" s="30"/>
-    </row>
-    <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A164" s="33" t="s">
-        <v>684</v>
+        <v>685</v>
+      </c>
+      <c r="C163" s="35">
+        <v>42270</v>
+      </c>
+      <c r="D163" s="30" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A164" s="32" t="s">
+        <v>681</v>
       </c>
       <c r="B164" s="30" t="s">
         <v>686</v>
@@ -10051,19 +10272,19 @@
       <c r="C164" s="33"/>
       <c r="D164" s="30"/>
     </row>
-    <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A165" s="33" t="s">
-        <v>684</v>
+    <row r="165" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A165" s="32" t="s">
+        <v>681</v>
       </c>
       <c r="B165" s="30" t="s">
-        <v>615</v>
+        <v>687</v>
       </c>
       <c r="C165" s="33"/>
       <c r="D165" s="30"/>
     </row>
-    <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="32" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B166" s="30" t="s">
         <v>688</v>
@@ -10071,9 +10292,9 @@
       <c r="C166" s="33"/>
       <c r="D166" s="30"/>
     </row>
-    <row r="167" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="32" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B167" s="30" t="s">
         <v>689</v>
@@ -10081,9 +10302,9 @@
       <c r="C167" s="33"/>
       <c r="D167" s="30"/>
     </row>
-    <row r="168" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="32" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B168" s="30" t="s">
         <v>690</v>
@@ -10091,9 +10312,9 @@
       <c r="C168" s="33"/>
       <c r="D168" s="30"/>
     </row>
-    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="32" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B169" s="30" t="s">
         <v>691</v>
@@ -10101,9 +10322,9 @@
       <c r="C169" s="33"/>
       <c r="D169" s="30"/>
     </row>
-    <row r="170" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="32" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B170" s="30" t="s">
         <v>692</v>
@@ -10111,9 +10332,9 @@
       <c r="C170" s="33"/>
       <c r="D170" s="30"/>
     </row>
-    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="32" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B171" s="30" t="s">
         <v>693</v>
@@ -10121,9 +10342,9 @@
       <c r="C171" s="33"/>
       <c r="D171" s="30"/>
     </row>
-    <row r="172" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="32" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B172" s="30" t="s">
         <v>694</v>
@@ -10131,9 +10352,9 @@
       <c r="C172" s="33"/>
       <c r="D172" s="30"/>
     </row>
-    <row r="173" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="32" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B173" s="30" t="s">
         <v>695</v>
@@ -10141,9 +10362,9 @@
       <c r="C173" s="33"/>
       <c r="D173" s="30"/>
     </row>
-    <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="32" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B174" s="30" t="s">
         <v>696</v>
@@ -10151,9 +10372,9 @@
       <c r="C174" s="33"/>
       <c r="D174" s="30"/>
     </row>
-    <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="32" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B175" s="30" t="s">
         <v>697</v>
@@ -10161,9 +10382,9 @@
       <c r="C175" s="33"/>
       <c r="D175" s="30"/>
     </row>
-    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="32" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B176" s="30" t="s">
         <v>698</v>
@@ -10173,7 +10394,7 @@
     </row>
     <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="32" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B177" s="30" t="s">
         <v>699</v>
@@ -10183,67 +10404,67 @@
     </row>
     <row r="178" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="32" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="B178" s="30" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C178" s="33"/>
       <c r="D178" s="30"/>
     </row>
     <row r="179" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="32" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="B179" s="30" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C179" s="33"/>
       <c r="D179" s="30"/>
     </row>
     <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="32" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="B180" s="30" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C180" s="33"/>
       <c r="D180" s="30"/>
     </row>
     <row r="181" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="32" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="B181" s="30" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C181" s="33"/>
       <c r="D181" s="30"/>
     </row>
     <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="32" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="B182" s="30" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C182" s="33"/>
       <c r="D182" s="30"/>
     </row>
     <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="32" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="B183" s="30" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C183" s="33"/>
       <c r="D183" s="30"/>
     </row>
     <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B184" s="30" t="s">
         <v>707</v>
@@ -10253,7 +10474,7 @@
     </row>
     <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B185" s="30" t="s">
         <v>708</v>
@@ -10263,7 +10484,7 @@
     </row>
     <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B186" s="30" t="s">
         <v>709</v>
@@ -10273,7 +10494,7 @@
     </row>
     <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B187" s="30" t="s">
         <v>710</v>
@@ -10283,7 +10504,7 @@
     </row>
     <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B188" s="30" t="s">
         <v>711</v>
@@ -10293,7 +10514,7 @@
     </row>
     <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A189" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B189" s="30" t="s">
         <v>712</v>
@@ -10303,7 +10524,7 @@
     </row>
     <row r="190" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A190" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B190" s="30" t="s">
         <v>713</v>
@@ -10313,7 +10534,7 @@
     </row>
     <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A191" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B191" s="30" t="s">
         <v>714</v>
@@ -10323,7 +10544,7 @@
     </row>
     <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A192" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B192" s="30" t="s">
         <v>715</v>
@@ -10333,7 +10554,7 @@
     </row>
     <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A193" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B193" s="30" t="s">
         <v>716</v>
@@ -10343,7 +10564,7 @@
     </row>
     <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A194" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B194" s="30" t="s">
         <v>717</v>
@@ -10353,7 +10574,7 @@
     </row>
     <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A195" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B195" s="30" t="s">
         <v>718</v>
@@ -10363,7 +10584,7 @@
     </row>
     <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A196" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B196" s="30" t="s">
         <v>719</v>
@@ -10373,7 +10594,7 @@
     </row>
     <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A197" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B197" s="30" t="s">
         <v>720</v>
@@ -10383,7 +10604,7 @@
     </row>
     <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A198" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B198" s="30" t="s">
         <v>721</v>
@@ -10393,7 +10614,7 @@
     </row>
     <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A199" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B199" s="30" t="s">
         <v>722</v>
@@ -10403,7 +10624,7 @@
     </row>
     <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A200" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B200" s="30" t="s">
         <v>723</v>
@@ -10413,7 +10634,7 @@
     </row>
     <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A201" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B201" s="30" t="s">
         <v>724</v>
@@ -10423,67 +10644,67 @@
     </row>
     <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A202" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B202" s="30" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C202" s="33"/>
       <c r="D202" s="30"/>
     </row>
     <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A203" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B203" s="30" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C203" s="33"/>
       <c r="D203" s="30"/>
     </row>
     <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A204" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B204" s="30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C204" s="33"/>
       <c r="D204" s="30"/>
     </row>
     <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A205" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B205" s="30" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C205" s="33"/>
       <c r="D205" s="30"/>
     </row>
     <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A206" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B206" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C206" s="33"/>
       <c r="D206" s="30"/>
     </row>
     <row r="207" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A207" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B207" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C207" s="33"/>
       <c r="D207" s="30"/>
     </row>
     <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A208" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B208" s="30" t="s">
         <v>730</v>
@@ -10493,7 +10714,7 @@
     </row>
     <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A209" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B209" s="30" t="s">
         <v>731</v>
@@ -10503,73 +10724,13 @@
     </row>
     <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A210" s="32" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B210" s="30" t="s">
         <v>732</v>
       </c>
       <c r="C210" s="33"/>
       <c r="D210" s="30"/>
-    </row>
-    <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A211" s="32" t="s">
-        <v>706</v>
-      </c>
-      <c r="B211" s="30" t="s">
-        <v>733</v>
-      </c>
-      <c r="C211" s="33"/>
-      <c r="D211" s="30"/>
-    </row>
-    <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A212" s="32" t="s">
-        <v>706</v>
-      </c>
-      <c r="B212" s="30" t="s">
-        <v>734</v>
-      </c>
-      <c r="C212" s="33"/>
-      <c r="D212" s="30"/>
-    </row>
-    <row r="213" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A213" s="32" t="s">
-        <v>706</v>
-      </c>
-      <c r="B213" s="30" t="s">
-        <v>735</v>
-      </c>
-      <c r="C213" s="33"/>
-      <c r="D213" s="30"/>
-    </row>
-    <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A214" s="32" t="s">
-        <v>706</v>
-      </c>
-      <c r="B214" s="30" t="s">
-        <v>736</v>
-      </c>
-      <c r="C214" s="33"/>
-      <c r="D214" s="30"/>
-    </row>
-    <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A215" s="32" t="s">
-        <v>706</v>
-      </c>
-      <c r="B215" s="30" t="s">
-        <v>737</v>
-      </c>
-      <c r="C215" s="33"/>
-      <c r="D215" s="30"/>
-    </row>
-    <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A216" s="32" t="s">
-        <v>706</v>
-      </c>
-      <c r="B216" s="30" t="s">
-        <v>738</v>
-      </c>
-      <c r="C216" s="33"/>
-      <c r="D216" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
@@ -10582,9 +10743,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10622,7 +10783,7 @@
         <v>42267</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -10636,7 +10797,7 @@
         <v>42267</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -10644,13 +10805,13 @@
         <v>350</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="C4" s="44">
         <v>42267</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -10658,13 +10819,13 @@
         <v>350</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="C5" s="44">
         <v>42267</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -10678,7 +10839,7 @@
         <v>42267</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -10692,7 +10853,7 @@
         <v>42267</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -10706,7 +10867,7 @@
         <v>42267</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -10720,7 +10881,7 @@
         <v>42267</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="66" x14ac:dyDescent="0.3">
@@ -10734,7 +10895,7 @@
         <v>42267</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -10748,7 +10909,7 @@
         <v>42267</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -10770,7 +10931,7 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="46" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -10852,7 +11013,7 @@
         <v>42267</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
@@ -10866,7 +11027,7 @@
         <v>42267</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.3">
@@ -10880,7 +11041,7 @@
         <v>42267</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -10894,7 +11055,7 @@
         <v>42267</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -10908,7 +11069,7 @@
         <v>42267</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -10922,7 +11083,7 @@
         <v>42267</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -10958,7 +11119,7 @@
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="46" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -11002,7 +11163,7 @@
         <v>42267</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -12038,7 +12199,7 @@
   <dimension ref="A1:D241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12052,171 +12213,171 @@
   <sheetData>
     <row r="1" spans="1:4" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="37" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="37" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -12226,1042 +12387,1042 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="37" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="37" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="37" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="37" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="37" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="37" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="37" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="37" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="37" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="37" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="37" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="37" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="37" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="37" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="37" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="37" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="37" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="37" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="37" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="37" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="37" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="37" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="37" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="37" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="37" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="37" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="37" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="37" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="37" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="37" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="37" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="37" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="37" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="37" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="37" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="37" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="37" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="37" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="37" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="37" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="37" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="37" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="37" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="37" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="37" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="37" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="37" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="37" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="37" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="37" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="37" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="37" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="37" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="37" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="37" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="37" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="37" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="37" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="37" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="37" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="37" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="37" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="37" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="37" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="37" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="37" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="37" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="37" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="37" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="37" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="37" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="37" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="37" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="37" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="37" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="37" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="37" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="37" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="37" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="37" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="37" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="37" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="37" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="37" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="37" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="37" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="37" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="37" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="37" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="37" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="37" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="37" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="37" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="37" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="37" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="37" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="37" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="37" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="37" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="37" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="37" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="37" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="37" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="37" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="37" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="37" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="37" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="37" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="37" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="37" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="37" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="37" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="37" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="37" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="37" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="37" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="37" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="37" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="37" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="37" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="37" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="37" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="37" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="37" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="37" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="37" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="37" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="37" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="37" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="37" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="37" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="37" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="37" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="37" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="37" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="37" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="37" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="37" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="37" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="37" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="37" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="37" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="37" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="37" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="37" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="37" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="37" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="37" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="37" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="37" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="37" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="37" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="37" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="37" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="37" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="37" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="37" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="37" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="37" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="37" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="37" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="37" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="37" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="37" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="37" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="37" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="37" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="37" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="37" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="37" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="37" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="37" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="37" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="37" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="37" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="37" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="37" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="37" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="37" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="37" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="37" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="37" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="37" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="37" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="37" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="37" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="37" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="37" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="37" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="37" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="37" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="37" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="37" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="37" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="37" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>

--- a/shyoo_20150920.xlsx
+++ b/shyoo_20150920.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19380" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19380" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="진행률" sheetId="5" r:id="rId1"/>
@@ -4684,184 +4684,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>297077</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="사각형 설명선 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1933575" y="2219325"/>
-          <a:ext cx="1573427" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -29913"/>
-            <a:gd name="adj2" fmla="val -484351"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:srgbClr val="ED7D31">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:srgbClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:srgbClr val="ED7D31">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:srgbClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:srgbClr val="ED7D31">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:srgbClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="ED7D31"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ko-KR"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕" panose="020F0502020204030204"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕" panose="020F0502020204030204"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕" panose="020F0502020204030204"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕" panose="020F0502020204030204"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕" panose="020F0502020204030204"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕" panose="020F0502020204030204"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕" panose="020F0502020204030204"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕" panose="020F0502020204030204"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕" panose="020F0502020204030204"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1000"/>
-            <a:t>개수다름</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -5151,8 +4973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5354,7 +5176,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8576,7 +8397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D163" sqref="D163"/>
     </sheetView>
@@ -12198,8 +12019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/shyoo_20150920.xlsx
+++ b/shyoo_20150920.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hyun\Desktop\Telcoware2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19380" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19380" windowHeight="7980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="진행률" sheetId="5" r:id="rId1"/>
@@ -16,14 +21,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Thread_API!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">UNIX_API!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">UNIX_Network!$A$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">UNIX_Network!$A$1:$D$114</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1127">
   <si>
     <t>1-7</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1401,9 +1406,6 @@
     <t>4-6</t>
   </si>
   <si>
-    <t xml:space="preserve">int accept(int 내찰으 struct sockaddr </t>
-  </si>
-  <si>
     <t>4-7</t>
   </si>
   <si>
@@ -1413,9 +1415,6 @@
     <t>int execv(const char (pathname, char *cost argv[])</t>
   </si>
   <si>
-    <t>int execle(채눗 char *pathname, const char *arg0, (char *)0, char *const envp[])</t>
-  </si>
-  <si>
     <t>in execlp(const char *filename,  const char *arg0, (char *)0)</t>
   </si>
   <si>
@@ -1557,15 +1556,6 @@
     <t>struct hostent *gethostbyaddr_r(const char *addr, int len, int type, struct hostent *result, char *buf, int buflen, int *h_errnop)</t>
   </si>
   <si>
-    <t>void syslog(int priority, const char *message, …)</t>
-  </si>
-  <si>
-    <t>void openlog(const char *ident, int options, int facility)</t>
-  </si>
-  <si>
-    <t>void closelog(void)</t>
-  </si>
-  <si>
     <t>13-3</t>
   </si>
   <si>
@@ -1674,61 +1664,13 @@
     <t>int sockatmark(int sockfd)</t>
   </si>
   <si>
-    <t>23-2</t>
-  </si>
-  <si>
-    <t>int pthread_create(pthread_t *tid, const pthread_attr_t *attr, void * (*func) (void *), void *arg);</t>
-  </si>
-  <si>
-    <t>int pthread_join(pthread_t tid, void **status);</t>
-  </si>
-  <si>
     <t>pthread_t pthread_self(void)</t>
   </si>
   <si>
-    <t>int pthread_detach(pthread_t tid)</t>
-  </si>
-  <si>
-    <t>void pthread_exit(void *status)</t>
-  </si>
-  <si>
-    <t>23-5</t>
-  </si>
-  <si>
-    <t>int pthread_once(pthread_once_t *onceptr, void (*init)void))</t>
-  </si>
-  <si>
-    <t>int pthread_key_create(pthread_key_t *keyptr, void (*destructor)(void *value));</t>
-  </si>
-  <si>
     <t>void *pthread_getspecific(pthread_key_t key)</t>
   </si>
   <si>
     <t>int pthread_setspecific(pthread_key_t key, const void *value)</t>
-  </si>
-  <si>
-    <t>23-7</t>
-  </si>
-  <si>
-    <t>pthread_mutex_lock(pthread_mutex_t *mptr)</t>
-  </si>
-  <si>
-    <t>int pthread_mutex_unlock(pthread_mutex_t *mptr)</t>
-  </si>
-  <si>
-    <t>23-8</t>
-  </si>
-  <si>
-    <t>pthread_cond_wait(pthread_cond_t *cptr, pthread_mutex_t *mptr)</t>
-  </si>
-  <si>
-    <t>int pthread_cond_signal(pthread_cond_t *cptr)</t>
-  </si>
-  <si>
-    <t>int pthread_cond_broadcast(pthread_cond_t *cptr)</t>
-  </si>
-  <si>
-    <t>int pthread_cond_timedwait(pthread_cond_t *cptr, pthread_mutex_t *mptr, const struct timespec *abstime)</t>
   </si>
   <si>
     <t>25-4</t>
@@ -3223,10 +3165,6 @@
   </si>
   <si>
     <t>해당 프로세스의 userid를 리턴한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3959,6 +3897,127 @@
 읽기모드, 쓰기모드로 잠김 잠기지 않음 세종류로 제어가 가능하다.
 쓰기 잠금의 경우는 한번에 하나의 스레드만 잠글 수 있지만, 읽기 잠금의 경우에는 동시에 여러 스레드가
 잠그고 있을 수 있다. 해당 함수는 초기화 하는 함수다. (성공 0 / 실패 오류번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPC방법중 하나로써 큐의 용량이 되는 한 계속 전송이 가능하다. 공유메모리와 같이 프로세스가 종료하더라도 커널에서
+가지고 있기 때문에 다른 프로세스에서도 가져 올 수 있다. 큐의 형태로써 순서대로 가져가지만 데이터 구조체에 타입을
+설정함으로써 원하는 타입의 순서대로 데이터를 가져갈 수 있다.
+식별자 키를 통해서 원하는 메시지큐에 접근 가능하다. (성공 : 식별자 / 실패 : -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 큐로 데이터를 전송한다. Msgflg를 통하여 설정을 줄 수 있다. (0 : 큐에 공간이 생길 때 까지 기다린다.
+IPC_NOWAIT : 큐에 여유공간이 없으면 -1로 복귀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시키 쥬의 현재 상태의 정보 및, 변경, 삭제를 할 수 있다.
+두번째 인자 cmd에 (IPC_STAT : 메시지 큐의 현재 상태를 buf에 저장
+                            IPC_SET  : 메시지 큐의 상태를 buf값으로 변경한다.
+                            IPC_RMID : 메시지 큐를 삭제한다.)
+성공 0 / 실패 -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 큐로부터 데이터를 가져온다. 4번째 인수로 어떤 자료를 읽어올 지를 결정하게 된다.
+0 : 큐에 자료가 있다면 첫 번째의 자료를 읽어 온다.
+양수 : 양수로 지정한 값과 같은 data_type의 자료 중 첫 번째를 읽어 온다.
+음수 : 절대 값으로 변경하고, 이 절대값보다 같거나 제일 작은 data_type의 자료를 읽어온다.
+성공 0 / 실패 -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세마포어의 값을 변경한다. 값을 증가시키거나 감소시킨다. 두번쨰 인자의 구조체로 값을 변경시켜준다.
+Struct sembuf {
+         short sem_num; 세마포어 번호
+         short sem_op;    세마포어 증감값
+         short sem_flg;     옵션
+}
+성공 : 0 / 실패 -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공유메모리를 생성한다. 첫번째 인자로 공유메모리를 구별하는 식별 번호를 넣게된다.
+프로세스가 종료되더라도 커널에 남아있어 다른 프로세스에서 접근 가능하다.
+성공 : 식별번호 / 실패 : -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-10-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 작업 디렉토리를 변경한다. (성공 0 / 실패 -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 디렉토리의 절대경로를 구한다. (성공 절대경로 / 실패 -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크를 생성한다. ( 존재하는 파일이름, 링크이름 )  성공 0 / 실패 -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크를 삭제한다. (성공 0 / 실패 -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filename으로 지정된 inode 접근 시간과 수정 시간을 buf의 actime과 modtime 값으로 변경한다. Buf가 NULL이면
+현재 시간으로 설정된다.
+Struct utimbuf{
+    time_t actime;   /접근시간
+    time_t modtime; 변경시간
+}
+성공 0 / 실패 -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etc/passwd의 행 하나씩 정보를 출력한다. (함수를 쓸떄마다 개행된다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getpwent로 한줄이 개행한 위치를 처음으로 돌린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwd파일을 닫는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영체제에 접근한 호스트 이름을 구한다. (성공 0 / 실패 -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int accept(int sockfdm struct sockaddr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int execle(const char *pathname, const char *arg0, (char *)0, char *const envp[])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째 인자의 로컬 소켓 식별자에 대한 정보를 반환한다. 두번째인자에 
+정보가 채워지게 된다.
+성공 0 /실패 -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getsockname과 같으나 연결된 상대 소켓의 주소 정보를 가져오게 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소켓 연결을 종료한다. 두번째 인자에 의해서 종료 설정을 할 수 있다.
+SHUT_RD : 입력 스트림 종료
+SHUT_WR : 출력 스트림 종료
+SHUT_RDWR : 입출력 스트림 종료
+성공 0 / 실패 -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주어진 호스트 name에 상응하는 hostent 타입의 구조체를 반환한다.
+성공 : hostent 구조체 / 실패 NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4727,7 +4786,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4762,7 +4821,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4973,8 +5032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4993,24 +5052,24 @@
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="47"/>
       <c r="C2" s="48" t="s">
-        <v>1071</v>
+        <v>1049</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>1072</v>
+        <v>1050</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>1073</v>
+        <v>1051</v>
       </c>
       <c r="F2" s="70" t="s">
-        <v>1074</v>
+        <v>1052</v>
       </c>
       <c r="G2" s="75" t="s">
-        <v>1079</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="50" t="s">
-        <v>1075</v>
+        <v>1053</v>
       </c>
       <c r="C3" s="51">
         <f>COUNTA(UNIX_API!$B$2:$B$500)</f>
@@ -5018,24 +5077,24 @@
       </c>
       <c r="D3" s="52">
         <f>COUNTA(UNIX_API!$C$2:$C$500)</f>
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E3" s="52">
         <f>COUNTA(UNIX_API!$E$2:$E$500)</f>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F3" s="71">
         <f>(D3/C3)</f>
-        <v>0.37391304347826088</v>
+        <v>0.43043478260869567</v>
       </c>
       <c r="G3" s="76">
         <f>(D3-E3)/C3</f>
-        <v>0.30869565217391304</v>
+        <v>0.40434782608695652</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
-        <v>1076</v>
+        <v>1054</v>
       </c>
       <c r="C4" s="54">
         <f>COUNTA(Thread_API!$B$2:$B$487)</f>
@@ -5060,50 +5119,50 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="56" t="s">
-        <v>1077</v>
+        <v>1055</v>
       </c>
       <c r="C5" s="59">
-        <f>COUNTA(UNIX_Network!$B$2:$B$500)</f>
-        <v>131</v>
+        <f>COUNTA(UNIX_Network!$B$2:$B$482)</f>
+        <v>113</v>
       </c>
       <c r="D5" s="57">
-        <f>COUNTA(UNIX_Network!$C$2:$C$500)</f>
-        <v>17</v>
+        <f>COUNTA(UNIX_Network!$C$2:$C$482)</f>
+        <v>22</v>
       </c>
       <c r="E5" s="57">
-        <f>COUNTA(UNIX_Network!$E$2:$E$500)</f>
+        <f>COUNTA(UNIX_Network!$E$2:$E$482)</f>
         <v>0</v>
       </c>
       <c r="F5" s="73">
         <f t="shared" si="0"/>
-        <v>0.12977099236641221</v>
+        <v>0.19469026548672566</v>
       </c>
       <c r="G5" s="78">
         <f>(D5-E5)/C5</f>
-        <v>0.12977099236641221</v>
+        <v>0.19469026548672566</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="68"/>
       <c r="C6" s="69">
         <f>SUM(C3:C5)</f>
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="D6" s="69">
         <f t="shared" ref="D6:E6" si="1">SUM(D3:D5)</f>
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E6" s="69">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F6" s="74">
         <f t="shared" si="0"/>
-        <v>0.20877192982456141</v>
+        <v>0.24818840579710144</v>
       </c>
       <c r="G6" s="79">
         <f>(D6-E6)/C6</f>
-        <v>0.18070175438596492</v>
+        <v>0.23550724637681159</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5117,24 +5176,24 @@
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="47"/>
       <c r="C8" s="48" t="s">
-        <v>1071</v>
+        <v>1049</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>1072</v>
+        <v>1050</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>1073</v>
+        <v>1051</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>1074</v>
+        <v>1052</v>
       </c>
       <c r="G8" s="81" t="s">
-        <v>1079</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="60" t="s">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="C9" s="61">
         <f>COUNTA(Linux!$A$2:$A$500)</f>
@@ -5184,8 +5243,8 @@
   <dimension ref="A1:I231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C133" sqref="C133"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -5224,10 +5283,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>1011</v>
+        <v>989</v>
       </c>
       <c r="E2" s="15"/>
     </row>
@@ -5239,10 +5298,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>1012</v>
+        <v>990</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -5397,13 +5456,13 @@
         <v>31</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>1009</v>
+        <v>987</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>1006</v>
+        <v>984</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -5414,13 +5473,13 @@
         <v>32</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>1007</v>
+        <v>985</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -5431,13 +5490,13 @@
         <v>33</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>1008</v>
+        <v>986</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
@@ -5448,10 +5507,10 @@
         <v>35</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>1043</v>
+        <v>1021</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>1070</v>
+        <v>1048</v>
       </c>
       <c r="E20" s="15"/>
     </row>
@@ -5472,10 +5531,10 @@
         <v>39</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>1080</v>
+        <v>1058</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>1081</v>
+        <v>1059</v>
       </c>
       <c r="E22" s="15"/>
     </row>
@@ -5487,10 +5546,10 @@
         <v>40</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>1080</v>
+        <v>1058</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>1082</v>
+        <v>1060</v>
       </c>
       <c r="E23" s="15"/>
     </row>
@@ -5502,10 +5561,10 @@
         <v>42</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>1080</v>
+        <v>1058</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>1084</v>
+        <v>1062</v>
       </c>
       <c r="E24" s="15"/>
     </row>
@@ -5517,10 +5576,10 @@
         <v>43</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>1080</v>
+        <v>1058</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>1085</v>
+        <v>1063</v>
       </c>
       <c r="E25" s="15"/>
     </row>
@@ -5564,8 +5623,12 @@
       <c r="B29" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="30"/>
+      <c r="C29" s="32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>1114</v>
+      </c>
       <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -5575,8 +5638,12 @@
       <c r="B30" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>1115</v>
+      </c>
       <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -5587,10 +5654,10 @@
         <v>51</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>1036</v>
+        <v>1014</v>
       </c>
       <c r="E31" s="15"/>
     </row>
@@ -5602,10 +5669,10 @@
         <v>52</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>1035</v>
+        <v>1013</v>
       </c>
       <c r="E32" s="15"/>
     </row>
@@ -5631,15 +5698,19 @@
       <c r="D34" s="30"/>
       <c r="E34" s="15"/>
     </row>
-    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="30"/>
+      <c r="C35" s="32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>1116</v>
+      </c>
       <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -5650,10 +5721,10 @@
         <v>59</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>1037</v>
+        <v>1015</v>
       </c>
       <c r="E36" s="15"/>
     </row>
@@ -5665,10 +5736,10 @@
         <v>61</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>1018</v>
+        <v>996</v>
       </c>
       <c r="E37" s="15"/>
     </row>
@@ -5680,10 +5751,10 @@
         <v>62</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>1019</v>
+        <v>997</v>
       </c>
       <c r="E38" s="15"/>
     </row>
@@ -5695,10 +5766,10 @@
         <v>63</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>1080</v>
+        <v>1058</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>1086</v>
+        <v>1064</v>
       </c>
       <c r="E39" s="15"/>
     </row>
@@ -5710,10 +5781,10 @@
         <v>64</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>1020</v>
+        <v>998</v>
       </c>
       <c r="E40" s="15"/>
     </row>
@@ -5724,8 +5795,12 @@
       <c r="B41" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="30"/>
+      <c r="C41" s="32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>1112</v>
+      </c>
       <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -5746,8 +5821,12 @@
       <c r="B43" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="30"/>
+      <c r="C43" s="32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>1113</v>
+      </c>
       <c r="E43" s="15"/>
     </row>
     <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -5802,10 +5881,10 @@
         <v>75</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>1043</v>
+        <v>1021</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>1044</v>
+        <v>1022</v>
       </c>
       <c r="E48" s="15"/>
     </row>
@@ -5817,10 +5896,10 @@
         <v>77</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>1043</v>
+        <v>1021</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>1045</v>
+        <v>1023</v>
       </c>
       <c r="E49" s="15"/>
     </row>
@@ -5854,10 +5933,10 @@
         <v>80</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>1043</v>
+        <v>1021</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>1046</v>
+        <v>1024</v>
       </c>
       <c r="E52" s="15"/>
     </row>
@@ -5869,10 +5948,10 @@
         <v>82</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>1043</v>
+        <v>1021</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>1047</v>
+        <v>1025</v>
       </c>
       <c r="E53" s="15"/>
     </row>
@@ -5884,10 +5963,10 @@
         <v>83</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>1043</v>
+        <v>1021</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>1048</v>
+        <v>1026</v>
       </c>
       <c r="E54" s="15"/>
     </row>
@@ -5910,10 +5989,10 @@
         <v>85</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>1004</v>
+        <v>982</v>
       </c>
       <c r="E56" s="15"/>
     </row>
@@ -5925,10 +6004,10 @@
         <v>86</v>
       </c>
       <c r="C57" s="32" t="s">
+        <v>960</v>
+      </c>
+      <c r="D57" s="30" t="s">
         <v>981</v>
-      </c>
-      <c r="D57" s="30" t="s">
-        <v>1003</v>
       </c>
       <c r="E57" s="15"/>
     </row>
@@ -5940,10 +6019,10 @@
         <v>87</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>1005</v>
+        <v>983</v>
       </c>
       <c r="E58" s="15"/>
     </row>
@@ -5966,10 +6045,10 @@
         <v>89</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>1002</v>
+        <v>980</v>
       </c>
       <c r="E60" s="15"/>
     </row>
@@ -5981,10 +6060,10 @@
         <v>90</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>1000</v>
+        <v>978</v>
       </c>
       <c r="E61" s="15"/>
     </row>
@@ -5996,10 +6075,10 @@
         <v>91</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>999</v>
+        <v>977</v>
       </c>
       <c r="E62" s="15"/>
     </row>
@@ -6011,10 +6090,10 @@
         <v>93</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>1001</v>
+        <v>979</v>
       </c>
       <c r="E63" s="15"/>
     </row>
@@ -6037,10 +6116,10 @@
         <v>95</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>997</v>
+        <v>975</v>
       </c>
       <c r="E65" s="15"/>
     </row>
@@ -6052,10 +6131,10 @@
         <v>96</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>998</v>
+        <v>976</v>
       </c>
       <c r="E66" s="15"/>
     </row>
@@ -6089,10 +6168,10 @@
         <v>101</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>993</v>
+        <v>971</v>
       </c>
       <c r="E69" s="15"/>
     </row>
@@ -6104,10 +6183,10 @@
         <v>102</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>992</v>
+        <v>970</v>
       </c>
       <c r="E70" s="15"/>
     </row>
@@ -6119,10 +6198,10 @@
         <v>103</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>994</v>
+        <v>972</v>
       </c>
       <c r="E71" s="15"/>
     </row>
@@ -6134,10 +6213,10 @@
         <v>105</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>995</v>
+        <v>973</v>
       </c>
       <c r="E72" s="15"/>
     </row>
@@ -6149,10 +6228,10 @@
         <v>106</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>996</v>
+        <v>974</v>
       </c>
       <c r="E73" s="15"/>
     </row>
@@ -6164,14 +6243,12 @@
         <v>107</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>988</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>985</v>
-      </c>
+        <v>966</v>
+      </c>
+      <c r="E74" s="15"/>
     </row>
     <row r="75" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
@@ -6181,14 +6258,12 @@
         <v>108</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>989</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>985</v>
-      </c>
+        <v>967</v>
+      </c>
+      <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
@@ -6198,10 +6273,10 @@
         <v>109</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>990</v>
+        <v>968</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>991</v>
+        <v>969</v>
       </c>
       <c r="E76" s="15"/>
     </row>
@@ -6246,14 +6321,12 @@
         <v>113</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>986</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>985</v>
-      </c>
+        <v>964</v>
+      </c>
+      <c r="E80" s="15"/>
     </row>
     <row r="81" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
@@ -6263,14 +6336,12 @@
         <v>114</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>987</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>985</v>
-      </c>
+        <v>965</v>
+      </c>
+      <c r="E81" s="15"/>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
@@ -6346,10 +6417,10 @@
         <v>124</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>1080</v>
+        <v>1058</v>
       </c>
       <c r="D88" s="39" t="s">
-        <v>1083</v>
+        <v>1061</v>
       </c>
       <c r="E88" s="15"/>
     </row>
@@ -6360,8 +6431,12 @@
       <c r="B89" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C89" s="32"/>
-      <c r="D89" s="30"/>
+      <c r="C89" s="32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>1117</v>
+      </c>
       <c r="E89" s="15"/>
     </row>
     <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6371,8 +6446,12 @@
       <c r="B90" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C90" s="32"/>
-      <c r="D90" s="30"/>
+      <c r="C90" s="32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>1118</v>
+      </c>
       <c r="E90" s="15"/>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6382,8 +6461,12 @@
       <c r="B91" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="30"/>
+      <c r="C91" s="32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>1119</v>
+      </c>
       <c r="E91" s="15"/>
     </row>
     <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6492,8 +6575,12 @@
       <c r="B101" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C101" s="32"/>
-      <c r="D101" s="30"/>
+      <c r="C101" s="32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>1120</v>
+      </c>
       <c r="E101" s="15"/>
     </row>
     <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6504,10 +6591,10 @@
         <v>142</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>1033</v>
+        <v>1011</v>
       </c>
       <c r="E102" s="15"/>
     </row>
@@ -6530,10 +6617,10 @@
         <v>144</v>
       </c>
       <c r="C104" s="32" t="s">
+        <v>987</v>
+      </c>
+      <c r="D104" s="30" t="s">
         <v>1009</v>
-      </c>
-      <c r="D104" s="30" t="s">
-        <v>1031</v>
       </c>
       <c r="E104" s="15"/>
     </row>
@@ -6567,10 +6654,10 @@
         <v>147</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>1034</v>
+        <v>1012</v>
       </c>
       <c r="E107" s="15"/>
     </row>
@@ -6626,10 +6713,10 @@
         <v>154</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>1022</v>
+        <v>1000</v>
       </c>
       <c r="D112" s="43" t="s">
-        <v>1021</v>
+        <v>999</v>
       </c>
       <c r="E112" s="15"/>
     </row>
@@ -6641,10 +6728,10 @@
         <v>155</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>1022</v>
+        <v>1000</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>1025</v>
+        <v>1003</v>
       </c>
       <c r="E113" s="15"/>
     </row>
@@ -6656,10 +6743,10 @@
         <v>156</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>1022</v>
+        <v>1000</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>1023</v>
+        <v>1001</v>
       </c>
       <c r="E114" s="15"/>
     </row>
@@ -6671,10 +6758,10 @@
         <v>157</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>1022</v>
+        <v>1000</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>1024</v>
+        <v>1002</v>
       </c>
       <c r="E115" s="15"/>
     </row>
@@ -6686,10 +6773,10 @@
         <v>159</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>1099</v>
+        <v>1077</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>1102</v>
+        <v>1080</v>
       </c>
       <c r="E116" s="15"/>
     </row>
@@ -6778,14 +6865,12 @@
         <v>171</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>982</v>
-      </c>
-      <c r="E124" s="15" t="s">
-        <v>985</v>
-      </c>
+        <v>961</v>
+      </c>
+      <c r="E124" s="15"/>
     </row>
     <row r="125" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
@@ -6795,14 +6880,12 @@
         <v>172</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>983</v>
-      </c>
-      <c r="E125" s="15" t="s">
-        <v>985</v>
-      </c>
+        <v>962</v>
+      </c>
+      <c r="E125" s="15"/>
     </row>
     <row r="126" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
@@ -6812,14 +6895,12 @@
         <v>173</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D126" s="30" t="s">
-        <v>984</v>
-      </c>
-      <c r="E126" s="15" t="s">
-        <v>985</v>
-      </c>
+        <v>963</v>
+      </c>
+      <c r="E126" s="15"/>
     </row>
     <row r="127" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
@@ -6840,14 +6921,12 @@
         <v>175</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>979</v>
+        <v>958</v>
       </c>
       <c r="D128" s="30" t="s">
-        <v>980</v>
-      </c>
-      <c r="E128" s="15" t="s">
-        <v>985</v>
-      </c>
+        <v>959</v>
+      </c>
+      <c r="E128" s="15"/>
     </row>
     <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
@@ -6868,14 +6947,12 @@
         <v>178</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>977</v>
+        <v>956</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>978</v>
-      </c>
-      <c r="E130" s="15" t="s">
-        <v>985</v>
-      </c>
+        <v>957</v>
+      </c>
+      <c r="E130" s="15"/>
     </row>
     <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
@@ -6885,10 +6962,10 @@
         <v>180</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>1042</v>
+        <v>1020</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>1087</v>
+        <v>1065</v>
       </c>
       <c r="E131" s="15"/>
     </row>
@@ -6900,10 +6977,10 @@
         <v>181</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>1080</v>
+        <v>1058</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>1088</v>
+        <v>1066</v>
       </c>
       <c r="E132" s="15"/>
     </row>
@@ -6937,10 +7014,10 @@
         <v>187</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>1099</v>
+        <v>1077</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>1100</v>
+        <v>1078</v>
       </c>
       <c r="E135" s="15"/>
     </row>
@@ -6952,10 +7029,10 @@
         <v>188</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>1099</v>
+        <v>1077</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>1101</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -6966,13 +7043,13 @@
         <v>189</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>1099</v>
+        <v>1077</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>1104</v>
+        <v>1082</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -6983,10 +7060,10 @@
         <v>191</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>1099</v>
+        <v>1077</v>
       </c>
       <c r="D138" s="28" t="s">
-        <v>1105</v>
+        <v>1083</v>
       </c>
       <c r="E138" s="15"/>
     </row>
@@ -6998,10 +7075,10 @@
         <v>192</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>1099</v>
+        <v>1077</v>
       </c>
       <c r="D139" s="28" t="s">
-        <v>1106</v>
+        <v>1084</v>
       </c>
       <c r="E139" s="15"/>
     </row>
@@ -7013,10 +7090,10 @@
         <v>194</v>
       </c>
       <c r="C140" s="32" t="s">
-        <v>1099</v>
+        <v>1077</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>1107</v>
+        <v>1085</v>
       </c>
       <c r="E140" s="15"/>
     </row>
@@ -7094,10 +7171,10 @@
         <v>203</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>1099</v>
+        <v>1077</v>
       </c>
       <c r="D147" s="28" t="s">
-        <v>1108</v>
+        <v>1086</v>
       </c>
       <c r="E147" s="15"/>
     </row>
@@ -7109,10 +7186,10 @@
         <v>205</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>1041</v>
+        <v>1019</v>
       </c>
       <c r="E148" s="15"/>
     </row>
@@ -7190,13 +7267,13 @@
         <v>219</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>1039</v>
+        <v>1017</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>1040</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
@@ -7207,14 +7284,14 @@
         <v>221</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>1028</v>
+        <v>1006</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>1029</v>
+        <v>1007</v>
       </c>
       <c r="E156" s="15"/>
       <c r="F156" s="1" t="s">
-        <v>1030</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -7235,10 +7312,10 @@
         <v>224</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="D158" s="28" t="s">
-        <v>1038</v>
+        <v>1016</v>
       </c>
       <c r="E158" s="15"/>
     </row>
@@ -7250,10 +7327,10 @@
         <v>225</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>1028</v>
+        <v>1006</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>1026</v>
+        <v>1004</v>
       </c>
       <c r="E159" s="15"/>
     </row>
@@ -7265,10 +7342,10 @@
         <v>227</v>
       </c>
       <c r="C160" s="32" t="s">
-        <v>1099</v>
+        <v>1077</v>
       </c>
       <c r="D160" s="38" t="s">
-        <v>1109</v>
+        <v>1087</v>
       </c>
       <c r="E160" s="15"/>
     </row>
@@ -7280,10 +7357,10 @@
         <v>228</v>
       </c>
       <c r="C161" s="32" t="s">
-        <v>1099</v>
+        <v>1077</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>1112</v>
+        <v>1090</v>
       </c>
       <c r="E161" s="15"/>
     </row>
@@ -7295,10 +7372,10 @@
         <v>229</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>1099</v>
+        <v>1077</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>1110</v>
+        <v>1088</v>
       </c>
       <c r="E162" s="15"/>
     </row>
@@ -7310,10 +7387,10 @@
         <v>230</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>1099</v>
+        <v>1077</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>1111</v>
+        <v>1089</v>
       </c>
       <c r="E163" s="15"/>
     </row>
@@ -7325,10 +7402,10 @@
         <v>231</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>1099</v>
+        <v>1077</v>
       </c>
       <c r="D164" s="38" t="s">
-        <v>1113</v>
+        <v>1091</v>
       </c>
       <c r="E164" s="15"/>
     </row>
@@ -7340,13 +7417,13 @@
         <v>233</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>1099</v>
+        <v>1077</v>
       </c>
       <c r="D165" s="28" t="s">
-        <v>1114</v>
+        <v>1092</v>
       </c>
       <c r="E165" s="15" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -7357,10 +7434,10 @@
         <v>235</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>1099</v>
+        <v>1077</v>
       </c>
       <c r="D166" s="28" t="s">
-        <v>1115</v>
+        <v>1093</v>
       </c>
       <c r="E166" s="15"/>
     </row>
@@ -7405,10 +7482,10 @@
         <v>243</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>1099</v>
+        <v>1077</v>
       </c>
       <c r="D170" s="30" t="s">
-        <v>1116</v>
+        <v>1094</v>
       </c>
       <c r="E170" s="15"/>
     </row>
@@ -7717,7 +7794,7 @@
       </c>
       <c r="C191" s="33"/>
       <c r="D191" s="28" t="s">
-        <v>1027</v>
+        <v>1005</v>
       </c>
       <c r="E191" s="15"/>
       <c r="F191" s="8"/>
@@ -7874,7 +7951,7 @@
         <v>42266</v>
       </c>
       <c r="D202" s="28" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
       <c r="E202" s="15"/>
     </row>
@@ -7889,7 +7966,7 @@
         <v>42270</v>
       </c>
       <c r="D203" s="28" t="s">
-        <v>1117</v>
+        <v>1095</v>
       </c>
       <c r="E203" s="15"/>
     </row>
@@ -7904,64 +7981,80 @@
         <v>42270</v>
       </c>
       <c r="D204" s="30" t="s">
-        <v>1118</v>
+        <v>1096</v>
       </c>
       <c r="E204" s="15"/>
     </row>
-    <row r="205" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A205" s="9" t="s">
         <v>296</v>
       </c>
       <c r="B205" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="C205" s="33"/>
-      <c r="D205" s="30"/>
+      <c r="C205" s="35">
+        <v>42281</v>
+      </c>
+      <c r="D205" s="28" t="s">
+        <v>1105</v>
+      </c>
       <c r="E205" s="20"/>
       <c r="F205" s="12"/>
       <c r="G205" s="12"/>
       <c r="H205" s="12"/>
       <c r="I205" s="12"/>
     </row>
-    <row r="206" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
         <v>296</v>
       </c>
       <c r="B206" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="C206" s="33"/>
-      <c r="D206" s="30"/>
+      <c r="C206" s="35">
+        <v>42281</v>
+      </c>
+      <c r="D206" s="28" t="s">
+        <v>1107</v>
+      </c>
       <c r="E206" s="20"/>
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
       <c r="H206" s="12"/>
       <c r="I206" s="12"/>
     </row>
-    <row r="207" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
         <v>296</v>
       </c>
       <c r="B207" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="C207" s="33"/>
-      <c r="D207" s="30"/>
+      <c r="C207" s="35">
+        <v>42281</v>
+      </c>
+      <c r="D207" s="28" t="s">
+        <v>1106</v>
+      </c>
       <c r="E207" s="20"/>
       <c r="F207" s="12"/>
       <c r="G207" s="12"/>
       <c r="H207" s="12"/>
       <c r="I207" s="12"/>
     </row>
-    <row r="208" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
         <v>296</v>
       </c>
       <c r="B208" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="C208" s="33"/>
-      <c r="D208" s="30"/>
+      <c r="C208" s="35">
+        <v>42281</v>
+      </c>
+      <c r="D208" s="28" t="s">
+        <v>1108</v>
+      </c>
       <c r="E208" s="20"/>
       <c r="F208" s="12"/>
       <c r="G208" s="12"/>
@@ -7979,7 +8072,7 @@
         <v>42266</v>
       </c>
       <c r="D209" s="28" t="s">
-        <v>1015</v>
+        <v>993</v>
       </c>
       <c r="E209" s="20"/>
       <c r="F209" s="12"/>
@@ -7998,7 +8091,7 @@
         <v>42266</v>
       </c>
       <c r="D210" s="39" t="s">
-        <v>1016</v>
+        <v>994</v>
       </c>
       <c r="E210" s="20"/>
       <c r="F210" s="12"/>
@@ -8006,7 +8099,7 @@
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
     </row>
-    <row r="211" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
         <v>301</v>
       </c>
@@ -8016,24 +8109,28 @@
       <c r="C211" s="35">
         <v>42266</v>
       </c>
-      <c r="D211" s="30"/>
+      <c r="D211" s="28" t="s">
+        <v>1109</v>
+      </c>
       <c r="E211" s="20"/>
       <c r="F211" s="12"/>
       <c r="G211" s="12"/>
       <c r="H211" s="12"/>
       <c r="I211" s="12"/>
     </row>
-    <row r="212" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A212" s="9" t="s">
         <v>305</v>
       </c>
       <c r="B212" s="18" t="s">
-        <v>1013</v>
+        <v>991</v>
       </c>
       <c r="C212" s="35">
         <v>42266</v>
       </c>
-      <c r="D212" s="28"/>
+      <c r="D212" s="28" t="s">
+        <v>1110</v>
+      </c>
       <c r="E212" s="20"/>
       <c r="F212" s="12"/>
       <c r="G212" s="12"/>
@@ -8051,7 +8148,7 @@
         <v>42266</v>
       </c>
       <c r="D213" s="28" t="s">
-        <v>1014</v>
+        <v>992</v>
       </c>
       <c r="E213" s="20"/>
       <c r="F213" s="12"/>
@@ -8070,7 +8167,7 @@
         <v>42266</v>
       </c>
       <c r="D214" s="39" t="s">
-        <v>1017</v>
+        <v>995</v>
       </c>
       <c r="E214" s="20"/>
       <c r="F214" s="12"/>
@@ -8428,2127 +8525,2127 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="C2" s="35">
         <v>42269</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>1089</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="C3" s="35">
         <v>42269</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>1090</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="C5" s="35">
         <v>42269</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>1091</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="C6" s="35">
         <v>42269</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>1093</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="C7" s="35">
         <v>42269</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>1092</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="C8" s="35">
         <v>42269</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>1094</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="C9" s="35">
         <v>42269</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>1095</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="C10" s="35">
         <v>42269</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>1096</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="C11" s="35">
         <v>42269</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>1097</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="C12" s="35">
         <v>42269</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>1098</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="82"/>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="C26" s="32"/>
       <c r="D26" s="82"/>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="C27" s="32"/>
       <c r="D27" s="82"/>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="82"/>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="82"/>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="82"/>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="82"/>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="82"/>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="C33" s="32"/>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="32" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="C34" s="32"/>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="C35" s="32"/>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="C36" s="32"/>
     </row>
     <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" s="32" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>1120</v>
+        <v>1098</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>1121</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="C38" s="32"/>
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="C39" s="32"/>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="C40" s="32"/>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="C41" s="32"/>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="C42" s="32"/>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="32" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="C43" s="32"/>
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="C44" s="32"/>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="32" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="C45" s="32"/>
     </row>
     <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="C46" s="32"/>
     </row>
     <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="32" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="C47" s="32"/>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="32" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="C48" s="32"/>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="32" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="C49" s="32"/>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="32" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="C50" s="32"/>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="32" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="C51" s="32"/>
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="32" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="C52" s="32"/>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="32" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="C53" s="32"/>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="C54" s="32"/>
     </row>
     <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="32" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="C55" s="32"/>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="32" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="C56" s="32"/>
     </row>
     <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="32" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="C57" s="32"/>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="32" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="C58" s="32"/>
     </row>
     <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="C59" s="32"/>
     </row>
     <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="32" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="C60" s="32"/>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="32" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="C61" s="32"/>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="32" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="C62" s="32"/>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="32" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="C63" s="32"/>
     </row>
     <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="32" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="C64" s="32"/>
       <c r="D64" s="82"/>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="32" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="C65" s="32"/>
       <c r="D65" s="82"/>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="32" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="C66" s="32"/>
       <c r="D66" s="82"/>
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="32" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="C67" s="32"/>
       <c r="D67" s="82"/>
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="32" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="C68" s="32"/>
       <c r="D68" s="82"/>
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="32" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="C69" s="32"/>
       <c r="D69" s="82"/>
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="32" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>611</v>
+        <v>590</v>
       </c>
       <c r="C70" s="32"/>
       <c r="D70" s="82"/>
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="C71" s="32"/>
       <c r="D71" s="82"/>
     </row>
     <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="C72" s="32"/>
       <c r="D72" s="30"/>
     </row>
     <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="C73" s="32"/>
       <c r="D73" s="30"/>
     </row>
     <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="C74" s="32"/>
       <c r="D74" s="30"/>
     </row>
     <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="C75" s="32"/>
       <c r="D75" s="30"/>
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="C76" s="32"/>
       <c r="D76" s="30"/>
     </row>
     <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="C77" s="32"/>
       <c r="D77" s="30"/>
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C78" s="32"/>
       <c r="D78" s="30"/>
     </row>
     <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="C79" s="32"/>
       <c r="D79" s="30"/>
     </row>
     <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="32" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="C80" s="32"/>
       <c r="D80" s="30"/>
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="C81" s="33"/>
       <c r="D81" s="30"/>
     </row>
     <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="C82" s="33"/>
       <c r="D82" s="30"/>
     </row>
     <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="C83" s="33"/>
       <c r="D83" s="30"/>
     </row>
     <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="C84" s="33"/>
       <c r="D84" s="30"/>
     </row>
     <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="C85" s="33"/>
       <c r="D85" s="30"/>
     </row>
     <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="33" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="C86" s="33"/>
       <c r="D86" s="30"/>
     </row>
     <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="C87" s="33"/>
       <c r="D87" s="30"/>
     </row>
     <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="C88" s="33"/>
       <c r="D88" s="30"/>
     </row>
     <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="33" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C89" s="35">
         <v>42270</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>1119</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="33" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="C90" s="33"/>
       <c r="D90" s="30"/>
     </row>
     <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="33" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
       <c r="C91" s="33"/>
       <c r="D91" s="30"/>
     </row>
     <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="C92" s="33"/>
       <c r="D92" s="30"/>
     </row>
     <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="C93" s="33"/>
       <c r="D93" s="30"/>
     </row>
     <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="33" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="C94" s="33"/>
       <c r="D94" s="30"/>
     </row>
     <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="33" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="C95" s="33"/>
       <c r="D95" s="30"/>
     </row>
     <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="33" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="C96" s="33"/>
       <c r="D96" s="30"/>
     </row>
     <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="33" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="C97" s="33"/>
       <c r="D97" s="30"/>
     </row>
     <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="33" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="C98" s="33"/>
       <c r="D98" s="30"/>
     </row>
     <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="35" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="C99" s="33"/>
       <c r="D99" s="30"/>
     </row>
     <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="35" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="C100" s="33"/>
       <c r="D100" s="30"/>
     </row>
     <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="35" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="C101" s="33"/>
       <c r="D101" s="30"/>
     </row>
     <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="35" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="C102" s="33"/>
       <c r="D102" s="30"/>
     </row>
     <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="35" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C103" s="33"/>
       <c r="D103" s="30"/>
     </row>
     <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="35" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="C104" s="33"/>
       <c r="D104" s="30"/>
     </row>
     <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="35" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="C105" s="33"/>
       <c r="D105" s="30"/>
     </row>
     <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="35" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="C106" s="33"/>
       <c r="D106" s="30"/>
     </row>
     <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="35" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="C107" s="33"/>
       <c r="D107" s="30"/>
     </row>
     <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="35" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="C108" s="33"/>
       <c r="D108" s="30"/>
     </row>
     <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="33" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="C109" s="35">
         <v>42270</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>1122</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A110" s="33" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>1120</v>
+        <v>1098</v>
       </c>
       <c r="D110" s="39" t="s">
-        <v>1123</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="33" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="C111" s="33"/>
       <c r="D111" s="30"/>
     </row>
     <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="33" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="C112" s="33"/>
       <c r="D112" s="30"/>
     </row>
     <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="33" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="C113" s="33"/>
       <c r="D113" s="30"/>
     </row>
     <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="33" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="C114" s="33"/>
       <c r="D114" s="30"/>
     </row>
     <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="33" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="C115" s="33"/>
       <c r="D115" s="30"/>
     </row>
     <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="33" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="C116" s="33"/>
       <c r="D116" s="30"/>
     </row>
     <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="33" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="B117" s="30" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="C117" s="33"/>
       <c r="D117" s="30"/>
     </row>
     <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="33" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="C118" s="33"/>
       <c r="D118" s="30"/>
     </row>
     <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="33" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="C119" s="33"/>
       <c r="D119" s="30"/>
     </row>
     <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="33" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="C120" s="33"/>
       <c r="D120" s="30"/>
     </row>
     <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="33" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="C121" s="33"/>
       <c r="D121" s="30"/>
     </row>
     <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="33" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="C122" s="33"/>
       <c r="D122" s="30"/>
     </row>
     <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="33" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="C123" s="33"/>
       <c r="D123" s="30"/>
     </row>
     <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="33" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="C124" s="33"/>
       <c r="D124" s="30"/>
     </row>
     <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="33" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="C125" s="33"/>
       <c r="D125" s="30"/>
     </row>
     <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="33" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="C126" s="33"/>
       <c r="D126" s="30"/>
     </row>
     <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="33" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="C127" s="33"/>
       <c r="D127" s="30"/>
     </row>
     <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="33" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="C128" s="33"/>
       <c r="D128" s="30"/>
     </row>
     <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="33" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="C129" s="33"/>
       <c r="D129" s="30"/>
     </row>
     <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="33" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="C130" s="33"/>
       <c r="D130" s="30"/>
     </row>
     <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="33" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="C131" s="33"/>
       <c r="D131" s="30"/>
     </row>
     <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="33" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="C132" s="33"/>
       <c r="D132" s="30"/>
     </row>
     <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="33" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="C133" s="33"/>
       <c r="D133" s="30"/>
     </row>
     <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="33" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="C134" s="33"/>
       <c r="D134" s="30"/>
     </row>
     <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="33" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="C135" s="33"/>
       <c r="D135" s="30"/>
     </row>
     <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="33" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="C136" s="33"/>
       <c r="D136" s="30"/>
     </row>
     <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="33" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="C137" s="33"/>
       <c r="D137" s="30"/>
     </row>
     <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="33" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="C138" s="33"/>
       <c r="D138" s="30"/>
     </row>
     <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="33" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="C139" s="33"/>
       <c r="D139" s="30"/>
     </row>
     <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="33" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="C140" s="33"/>
       <c r="D140" s="30"/>
     </row>
     <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="33" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="C141" s="33"/>
       <c r="D141" s="30"/>
     </row>
     <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="33" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="C142" s="33"/>
       <c r="D142" s="30"/>
     </row>
     <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="33" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="C143" s="33"/>
       <c r="D143" s="30"/>
     </row>
     <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="33" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="C144" s="33"/>
       <c r="D144" s="30"/>
     </row>
     <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="33" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="C145" s="33"/>
       <c r="D145" s="30"/>
     </row>
     <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="33" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="C146" s="33"/>
       <c r="D146" s="30"/>
     </row>
     <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="33" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="C147" s="33"/>
       <c r="D147" s="30"/>
     </row>
     <row r="148" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="33" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="C148" s="33"/>
       <c r="D148" s="30"/>
     </row>
     <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="33" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="C149" s="33"/>
       <c r="D149" s="30"/>
     </row>
     <row r="150" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="33" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="B150" s="30" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="C150" s="33"/>
       <c r="D150" s="30"/>
     </row>
     <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="33" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="B151" s="30" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="C151" s="33"/>
       <c r="D151" s="30"/>
     </row>
     <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="33" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="B152" s="30" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="C152" s="33"/>
       <c r="D152" s="30"/>
     </row>
     <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="33" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="B153" s="30" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="C153" s="33"/>
       <c r="D153" s="30"/>
     </row>
     <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="33" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="B154" s="30" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="C154" s="33"/>
       <c r="D154" s="30"/>
     </row>
     <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="33" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="B155" s="30" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="C155" s="33"/>
       <c r="D155" s="30"/>
     </row>
     <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="33" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="B156" s="30" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="C156" s="33"/>
       <c r="D156" s="30"/>
     </row>
     <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="33" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="B157" s="30" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="C157" s="33"/>
       <c r="D157" s="30"/>
     </row>
     <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="33" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="B158" s="30" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="C158" s="33"/>
       <c r="D158" s="30"/>
     </row>
     <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="33" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="B159" s="30" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="C159" s="33"/>
       <c r="D159" s="30"/>
     </row>
     <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="32" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B160" s="30" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="C160" s="33"/>
       <c r="D160" s="30"/>
     </row>
     <row r="161" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="32" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B161" s="30" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="C161" s="33"/>
       <c r="D161" s="30"/>
     </row>
     <row r="162" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A162" s="32" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B162" s="30" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="C162" s="35">
         <v>42270</v>
       </c>
       <c r="D162" s="28" t="s">
-        <v>1126</v>
+        <v>1104</v>
       </c>
       <c r="E162" s="13" t="s">
-        <v>1124</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="32" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B163" s="30" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="C163" s="35">
         <v>42270</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>1125</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="32" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B164" s="30" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="C164" s="33"/>
       <c r="D164" s="30"/>
     </row>
     <row r="165" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="32" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B165" s="30" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="C165" s="33"/>
       <c r="D165" s="30"/>
     </row>
     <row r="166" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="32" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B166" s="30" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="C166" s="33"/>
       <c r="D166" s="30"/>
     </row>
     <row r="167" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="32" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B167" s="30" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="C167" s="33"/>
       <c r="D167" s="30"/>
     </row>
     <row r="168" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="32" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B168" s="30" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="C168" s="33"/>
       <c r="D168" s="30"/>
     </row>
     <row r="169" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="32" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B169" s="30" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="C169" s="33"/>
       <c r="D169" s="30"/>
     </row>
     <row r="170" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="32" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B170" s="30" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="C170" s="33"/>
       <c r="D170" s="30"/>
     </row>
     <row r="171" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="32" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B171" s="30" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="C171" s="33"/>
       <c r="D171" s="30"/>
     </row>
     <row r="172" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="32" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B172" s="30" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="C172" s="33"/>
       <c r="D172" s="30"/>
     </row>
     <row r="173" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="32" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B173" s="30" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
       <c r="C173" s="33"/>
       <c r="D173" s="30"/>
     </row>
     <row r="174" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="32" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B174" s="30" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="C174" s="33"/>
       <c r="D174" s="30"/>
     </row>
     <row r="175" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="32" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B175" s="30" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="C175" s="33"/>
       <c r="D175" s="30"/>
     </row>
     <row r="176" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="32" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B176" s="30" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="C176" s="33"/>
       <c r="D176" s="30"/>
     </row>
     <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="32" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B177" s="30" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="C177" s="33"/>
       <c r="D177" s="30"/>
     </row>
     <row r="178" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B178" s="30" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="C178" s="33"/>
       <c r="D178" s="30"/>
     </row>
     <row r="179" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B179" s="30" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="C179" s="33"/>
       <c r="D179" s="30"/>
     </row>
     <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B180" s="30" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
       <c r="C180" s="33"/>
       <c r="D180" s="30"/>
     </row>
     <row r="181" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B181" s="30" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="C181" s="33"/>
       <c r="D181" s="30"/>
     </row>
     <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B182" s="30" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="C182" s="33"/>
       <c r="D182" s="30"/>
     </row>
     <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B183" s="30" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="C183" s="33"/>
       <c r="D183" s="30"/>
     </row>
     <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B184" s="30" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="C184" s="33"/>
       <c r="D184" s="30"/>
     </row>
     <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B185" s="30" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="C185" s="33"/>
       <c r="D185" s="30"/>
     </row>
     <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B186" s="30" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="C186" s="33"/>
       <c r="D186" s="30"/>
     </row>
     <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B187" s="30" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="C187" s="33"/>
       <c r="D187" s="30"/>
     </row>
     <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B188" s="30" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="C188" s="33"/>
       <c r="D188" s="30"/>
     </row>
     <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A189" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B189" s="30" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="C189" s="33"/>
       <c r="D189" s="30"/>
     </row>
     <row r="190" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A190" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B190" s="30" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="C190" s="33"/>
       <c r="D190" s="30"/>
     </row>
     <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A191" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B191" s="30" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="C191" s="33"/>
       <c r="D191" s="30"/>
     </row>
     <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A192" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B192" s="30" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="C192" s="33"/>
       <c r="D192" s="30"/>
     </row>
     <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A193" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B193" s="30" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="C193" s="33"/>
       <c r="D193" s="30"/>
     </row>
     <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A194" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B194" s="30" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="C194" s="33"/>
       <c r="D194" s="30"/>
     </row>
     <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A195" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B195" s="30" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="C195" s="33"/>
       <c r="D195" s="30"/>
     </row>
     <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A196" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B196" s="30" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="C196" s="33"/>
       <c r="D196" s="30"/>
     </row>
     <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A197" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B197" s="30" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="C197" s="33"/>
       <c r="D197" s="30"/>
     </row>
     <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A198" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="B198" s="30" t="s">
         <v>700</v>
-      </c>
-      <c r="B198" s="30" t="s">
-        <v>721</v>
       </c>
       <c r="C198" s="33"/>
       <c r="D198" s="30"/>
     </row>
     <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A199" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B199" s="30" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="C199" s="33"/>
       <c r="D199" s="30"/>
     </row>
     <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A200" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B200" s="30" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="C200" s="33"/>
       <c r="D200" s="30"/>
     </row>
     <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A201" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B201" s="30" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="C201" s="33"/>
       <c r="D201" s="30"/>
     </row>
     <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A202" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B202" s="30" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="C202" s="33"/>
       <c r="D202" s="30"/>
     </row>
     <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A203" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B203" s="30" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="C203" s="33"/>
       <c r="D203" s="30"/>
     </row>
     <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A204" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B204" s="30" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
       <c r="C204" s="33"/>
       <c r="D204" s="30"/>
     </row>
     <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A205" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B205" s="30" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="C205" s="33"/>
       <c r="D205" s="30"/>
     </row>
     <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A206" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B206" s="30" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="C206" s="33"/>
       <c r="D206" s="30"/>
     </row>
     <row r="207" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A207" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B207" s="30" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="C207" s="33"/>
       <c r="D207" s="30"/>
     </row>
     <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A208" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B208" s="30" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="C208" s="33"/>
       <c r="D208" s="30"/>
     </row>
     <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A209" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B209" s="30" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="C209" s="33"/>
       <c r="D209" s="30"/>
     </row>
     <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A210" s="32" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="B210" s="30" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="C210" s="33"/>
       <c r="D210" s="30"/>
@@ -10562,11 +10659,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10604,7 +10701,7 @@
         <v>42267</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>1050</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -10618,7 +10715,7 @@
         <v>42267</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>1049</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -10626,13 +10723,13 @@
         <v>350</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>1051</v>
+        <v>1029</v>
       </c>
       <c r="C4" s="44">
         <v>42267</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>1053</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -10640,13 +10737,13 @@
         <v>350</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>1052</v>
+        <v>1030</v>
       </c>
       <c r="C5" s="44">
         <v>42267</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>1054</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -10660,7 +10757,7 @@
         <v>42267</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>1055</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -10674,7 +10771,7 @@
         <v>42267</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>1056</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -10688,7 +10785,7 @@
         <v>42267</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>1057</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -10702,7 +10799,7 @@
         <v>42267</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>1058</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="66" x14ac:dyDescent="0.3">
@@ -10716,7 +10813,7 @@
         <v>42267</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>1059</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -10730,7 +10827,7 @@
         <v>42267</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>1060</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -10750,9 +10847,11 @@
       <c r="B13" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="44">
+        <v>42267</v>
+      </c>
       <c r="D13" s="46" t="s">
-        <v>1061</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -10822,6 +10921,7 @@
       <c r="B21" s="23" t="s">
         <v>373</v>
       </c>
+      <c r="C21" s="35"/>
     </row>
     <row r="22" spans="1:4" ht="162" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
@@ -10834,7 +10934,7 @@
         <v>42267</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>1062</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
@@ -10848,7 +10948,7 @@
         <v>42267</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>1063</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.3">
@@ -10862,7 +10962,7 @@
         <v>42267</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>1064</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -10876,7 +10976,7 @@
         <v>42267</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>1065</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -10884,48 +10984,48 @@
         <v>382</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>383</v>
+        <v>1121</v>
       </c>
       <c r="C26" s="35">
         <v>42267</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>1066</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>384</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>385</v>
       </c>
       <c r="C27" s="35">
         <v>42267</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>1067</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>387</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>190</v>
@@ -10933,19 +11033,19 @@
     </row>
     <row r="31" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="46" t="s">
-        <v>1068</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>193</v>
@@ -10953,96 +11053,108 @@
       <c r="C32" s="10"/>
       <c r="D32" s="45"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="45"/>
+        <v>388</v>
+      </c>
+      <c r="C33" s="44">
+        <v>42281</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>1123</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="B34" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="45"/>
+      <c r="C34" s="44">
+        <v>42281</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>1124</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C35" s="44">
         <v>42267</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="45"/>
+        <v>393</v>
+      </c>
+      <c r="C36" s="44">
+        <v>42281</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>1125</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="45"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="45"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="45"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="B40" s="23" t="s">
         <v>400</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>402</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="45"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="45"/>
@@ -11052,7 +11164,7 @@
         <v>169</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -11060,15 +11172,15 @@
         <v>169</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -11076,15 +11188,15 @@
         <v>211</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -11092,55 +11204,61 @@
         <v>214</v>
       </c>
       <c r="B47" s="23" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="B48" s="23" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>414</v>
+      <c r="C48" s="35">
+        <v>42281</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="B50" s="23" t="s">
         <v>415</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -11148,7 +11266,7 @@
         <v>253</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -11156,7 +11274,7 @@
         <v>258</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -11164,68 +11282,68 @@
         <v>263</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="45"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="B58" s="23" t="s">
         <v>427</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>429</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="45"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="45"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="45"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="B61" s="23" t="s">
         <v>432</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="s">
-        <v>267</v>
+        <v>433</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="26" t="s">
-        <v>267</v>
+        <v>435</v>
       </c>
       <c r="B63" s="23" t="s">
         <v>436</v>
@@ -11233,7 +11351,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="26" t="s">
-        <v>267</v>
+        <v>435</v>
       </c>
       <c r="B64" s="23" t="s">
         <v>437</v>
@@ -11241,31 +11359,31 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="B65" s="23" t="s">
         <v>438</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="B66" s="23" t="s">
         <v>440</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B68" s="23" t="s">
         <v>443</v>
@@ -11273,55 +11391,55 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="B69" s="23" t="s">
         <v>444</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="B72" s="23" t="s">
         <v>447</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
-        <v>447</v>
+        <v>293</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B75" s="23" t="s">
         <v>452</v>
@@ -11329,15 +11447,15 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="26" t="s">
-        <v>293</v>
+        <v>453</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B77" s="23" t="s">
         <v>455</v>
@@ -11345,18 +11463,18 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="B78" s="23" t="s">
         <v>456</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="26" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -11364,315 +11482,477 @@
         <v>458</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="26" t="s">
         <v>458</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="s">
         <v>458</v>
       </c>
       <c r="B82" s="23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="B83" s="23" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="26" t="s">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="B84" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="B83" s="23" t="s">
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="B85" s="23" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="B84" s="23" t="s">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="B86" s="23" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="B85" s="23" t="s">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="B87" s="23" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="B86" s="23" t="s">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" s="26" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="B87" s="23" t="s">
+      <c r="B88" s="29" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="B88" s="23" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="B89" s="23" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="B90" s="23" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+      <c r="B90" s="29" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="26" t="s">
         <v>472</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="26" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="22"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="26" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="22"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="26" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+      <c r="C94" s="10"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="22"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="26" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="27"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="27"/>
+      <c r="M95" s="27"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="26" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>479</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
+      <c r="K96" s="28"/>
+      <c r="L96" s="27"/>
+      <c r="M96" s="27"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="26" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>481</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="27"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="27"/>
+      <c r="M97" s="27"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="26" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>482</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="27"/>
+      <c r="M98" s="27"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="26" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>483</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="27"/>
+      <c r="M99" s="27"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="26" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>484</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="27"/>
+      <c r="M100" s="27"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="26" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>486</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="27"/>
+      <c r="M101" s="27"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="26" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>487</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="28"/>
+      <c r="L102" s="27"/>
+      <c r="M102" s="27"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="26" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>489</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="27"/>
+      <c r="K103" s="28"/>
+      <c r="L103" s="27"/>
+      <c r="M103" s="27"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="26" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>490</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27"/>
+      <c r="K104" s="28"/>
+      <c r="L104" s="27"/>
+      <c r="M104" s="27"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="26" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>491</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="27"/>
+      <c r="K105" s="28"/>
+      <c r="L105" s="27"/>
+      <c r="M105" s="27"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="26" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>492</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="27"/>
+      <c r="K106" s="28"/>
+      <c r="L106" s="27"/>
+      <c r="M106" s="27"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="26" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>494</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="27"/>
+      <c r="K107" s="25"/>
+      <c r="L107" s="27"/>
+      <c r="M107" s="27"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="26" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>495</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="27"/>
+      <c r="K108" s="28"/>
+      <c r="L108" s="27"/>
+      <c r="M108" s="27"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="26" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>496</v>
-      </c>
-      <c r="C109" s="10"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="22"/>
-      <c r="I109" s="22"/>
-      <c r="J109" s="22"/>
-      <c r="K109" s="22"/>
-      <c r="L109" s="22"/>
-      <c r="M109" s="22"/>
+        <v>502</v>
+      </c>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="27"/>
+      <c r="J109" s="27"/>
+      <c r="K109" s="28"/>
+      <c r="L109" s="27"/>
+      <c r="M109" s="27"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="26" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>497</v>
-      </c>
-      <c r="C110" s="10"/>
-      <c r="D110" s="45"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="22"/>
-      <c r="J110" s="22"/>
-      <c r="K110" s="22"/>
-      <c r="L110" s="22"/>
-      <c r="M110" s="22"/>
+        <v>504</v>
+      </c>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="27"/>
+      <c r="K110" s="28"/>
+      <c r="L110" s="27"/>
+      <c r="M110" s="27"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="26" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>498</v>
-      </c>
-      <c r="C111" s="10"/>
-      <c r="D111" s="45"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="22"/>
-      <c r="I111" s="22"/>
-      <c r="J111" s="22"/>
-      <c r="K111" s="22"/>
-      <c r="L111" s="22"/>
-      <c r="M111" s="22"/>
+        <v>505</v>
+      </c>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="27"/>
+      <c r="K111" s="28"/>
+      <c r="L111" s="27"/>
+      <c r="M111" s="27"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="26" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>499</v>
-      </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="22"/>
-      <c r="J112" s="22"/>
-      <c r="K112" s="22"/>
-      <c r="L112" s="22"/>
-      <c r="M112" s="22"/>
+        <v>506</v>
+      </c>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="27"/>
+      <c r="K112" s="28"/>
+      <c r="L112" s="27"/>
+      <c r="M112" s="27"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="26" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="E113" s="27"/>
       <c r="F113" s="27"/>
@@ -11686,10 +11966,10 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="26" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="E114" s="27"/>
       <c r="F114" s="27"/>
@@ -11701,314 +11981,8 @@
       <c r="L114" s="27"/>
       <c r="M114" s="27"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A115" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="B115" s="29" t="s">
-        <v>504</v>
-      </c>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="27"/>
-      <c r="K115" s="25"/>
-      <c r="L115" s="27"/>
-      <c r="M115" s="27"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A116" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="B116" s="29" t="s">
-        <v>506</v>
-      </c>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27"/>
-      <c r="J116" s="27"/>
-      <c r="K116" s="25"/>
-      <c r="L116" s="27"/>
-      <c r="M116" s="27"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A117" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="B117" s="29" t="s">
-        <v>508</v>
-      </c>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="27"/>
-      <c r="I117" s="27"/>
-      <c r="J117" s="27"/>
-      <c r="K117" s="28"/>
-      <c r="L117" s="27"/>
-      <c r="M117" s="27"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A118" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="B118" s="29" t="s">
-        <v>510</v>
-      </c>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="27"/>
-      <c r="K118" s="28"/>
-      <c r="L118" s="27"/>
-      <c r="M118" s="27"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A119" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="B119" s="29" t="s">
-        <v>511</v>
-      </c>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="27"/>
-      <c r="K119" s="28"/>
-      <c r="L119" s="27"/>
-      <c r="M119" s="27"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A120" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="B120" s="29" t="s">
-        <v>513</v>
-      </c>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="27"/>
-      <c r="H120" s="27"/>
-      <c r="I120" s="27"/>
-      <c r="J120" s="27"/>
-      <c r="K120" s="28"/>
-      <c r="L120" s="27"/>
-      <c r="M120" s="27"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A121" s="26" t="s">
-        <v>514</v>
-      </c>
-      <c r="B121" s="29" t="s">
-        <v>515</v>
-      </c>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="27"/>
-      <c r="K121" s="28"/>
-      <c r="L121" s="27"/>
-      <c r="M121" s="27"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A122" s="26" t="s">
-        <v>514</v>
-      </c>
-      <c r="B122" s="29" t="s">
-        <v>516</v>
-      </c>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="27"/>
-      <c r="J122" s="27"/>
-      <c r="K122" s="28"/>
-      <c r="L122" s="27"/>
-      <c r="M122" s="27"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A123" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="B123" s="29" t="s">
-        <v>518</v>
-      </c>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="27"/>
-      <c r="K123" s="28"/>
-      <c r="L123" s="27"/>
-      <c r="M123" s="27"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A124" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="B124" s="29" t="s">
-        <v>519</v>
-      </c>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
-      <c r="J124" s="27"/>
-      <c r="K124" s="28"/>
-      <c r="L124" s="27"/>
-      <c r="M124" s="27"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A125" s="26" t="s">
-        <v>520</v>
-      </c>
-      <c r="B125" s="29" t="s">
-        <v>521</v>
-      </c>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
-      <c r="I125" s="27"/>
-      <c r="J125" s="27"/>
-      <c r="K125" s="25"/>
-      <c r="L125" s="27"/>
-      <c r="M125" s="27"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A126" s="26" t="s">
-        <v>520</v>
-      </c>
-      <c r="B126" s="29" t="s">
-        <v>522</v>
-      </c>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="27"/>
-      <c r="J126" s="27"/>
-      <c r="K126" s="28"/>
-      <c r="L126" s="27"/>
-      <c r="M126" s="27"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127" s="26" t="s">
-        <v>520</v>
-      </c>
-      <c r="B127" s="29" t="s">
-        <v>523</v>
-      </c>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="27"/>
-      <c r="J127" s="27"/>
-      <c r="K127" s="28"/>
-      <c r="L127" s="27"/>
-      <c r="M127" s="27"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128" s="26" t="s">
-        <v>524</v>
-      </c>
-      <c r="B128" s="29" t="s">
-        <v>525</v>
-      </c>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="27"/>
-      <c r="J128" s="27"/>
-      <c r="K128" s="28"/>
-      <c r="L128" s="27"/>
-      <c r="M128" s="27"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A129" s="26" t="s">
-        <v>524</v>
-      </c>
-      <c r="B129" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="27"/>
-      <c r="J129" s="27"/>
-      <c r="K129" s="28"/>
-      <c r="L129" s="27"/>
-      <c r="M129" s="27"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A130" s="26" t="s">
-        <v>524</v>
-      </c>
-      <c r="B130" s="29" t="s">
-        <v>527</v>
-      </c>
-      <c r="E130" s="27"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="27"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="27"/>
-      <c r="J130" s="27"/>
-      <c r="K130" s="28"/>
-      <c r="L130" s="27"/>
-      <c r="M130" s="27"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A131" s="26" t="s">
-        <v>528</v>
-      </c>
-      <c r="B131" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="E131" s="27"/>
-      <c r="F131" s="27"/>
-      <c r="G131" s="27"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="27"/>
-      <c r="J131" s="27"/>
-      <c r="K131" s="28"/>
-      <c r="L131" s="27"/>
-      <c r="M131" s="27"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A132" s="26" t="s">
-        <v>528</v>
-      </c>
-      <c r="B132" s="29" t="s">
-        <v>530</v>
-      </c>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="27"/>
-      <c r="K132" s="28"/>
-      <c r="L132" s="27"/>
-      <c r="M132" s="27"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D132"/>
+  <autoFilter ref="A1:D114"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12034,171 +12008,171 @@
   <sheetData>
     <row r="1" spans="1:4" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="37" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="37" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="37" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -12208,1042 +12182,1042 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="37" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
-        <v>772</v>
+        <v>751</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="37" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="37" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="37" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="37" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="37" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="37" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="37" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="37" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="37" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="37" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="37" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="37" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="37" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="37" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="37" t="s">
-        <v>794</v>
+        <v>773</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="37" t="s">
-        <v>795</v>
+        <v>774</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="37" t="s">
-        <v>796</v>
+        <v>775</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="37" t="s">
-        <v>797</v>
+        <v>776</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="37" t="s">
-        <v>798</v>
+        <v>777</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="37" t="s">
-        <v>799</v>
+        <v>778</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="37" t="s">
-        <v>800</v>
+        <v>779</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="37" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="37" t="s">
-        <v>802</v>
+        <v>781</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="37" t="s">
-        <v>803</v>
+        <v>782</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="37" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="37" t="s">
-        <v>805</v>
+        <v>784</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="37" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="37" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="37" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="37" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="37" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="37" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="37" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="37" t="s">
-        <v>813</v>
+        <v>792</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="37" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="37" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="37" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="37" t="s">
-        <v>817</v>
+        <v>796</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="37" t="s">
-        <v>818</v>
+        <v>797</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="37" t="s">
-        <v>819</v>
+        <v>798</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="37" t="s">
-        <v>820</v>
+        <v>799</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="37" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="37" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="37" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="37" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="37" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="37" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="37" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="37" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="37" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="37" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="37" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="37" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="37" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="37" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="37" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="37" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="37" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="37" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="37" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="37" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="37" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="37" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="37" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="37" t="s">
-        <v>844</v>
+        <v>823</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="37" t="s">
-        <v>845</v>
+        <v>824</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="37" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="37" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="37" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="37" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="37" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="37" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="37" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="37" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="37" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="37" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="37" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="37" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="37" t="s">
-        <v>858</v>
+        <v>837</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="37" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="37" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="37" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="37" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="37" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="37" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="37" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="37" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="37" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="37" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="37" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="37" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="37" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="37" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="37" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="37" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="37" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="37" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="37" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="37" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="37" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="37" t="s">
-        <v>880</v>
+        <v>859</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="37" t="s">
-        <v>881</v>
+        <v>860</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="37" t="s">
-        <v>882</v>
+        <v>861</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="37" t="s">
-        <v>883</v>
+        <v>862</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="37" t="s">
-        <v>884</v>
+        <v>863</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="37" t="s">
-        <v>885</v>
+        <v>864</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="37" t="s">
-        <v>886</v>
+        <v>865</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="37" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="37" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="37" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="37" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="37" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="37" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="37" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="37" t="s">
-        <v>894</v>
+        <v>873</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="37" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="37" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="37" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="37" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="37" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="37" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="37" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="37" t="s">
-        <v>902</v>
+        <v>881</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="37" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="37" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="37" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="37" t="s">
-        <v>906</v>
+        <v>885</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="37" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="37" t="s">
-        <v>908</v>
+        <v>887</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="37" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="37" t="s">
-        <v>910</v>
+        <v>889</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="37" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="37" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="37" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="37" t="s">
-        <v>914</v>
+        <v>893</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="37" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="37" t="s">
-        <v>916</v>
+        <v>895</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="37" t="s">
-        <v>917</v>
+        <v>896</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="37" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="37" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="37" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="37" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="37" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="37" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="37" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="37" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="37" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="37" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="37" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="37" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="37" t="s">
-        <v>930</v>
+        <v>909</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="37" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="37" t="s">
-        <v>932</v>
+        <v>911</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="37" t="s">
-        <v>933</v>
+        <v>912</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="37" t="s">
-        <v>934</v>
+        <v>913</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="37" t="s">
-        <v>935</v>
+        <v>914</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="37" t="s">
-        <v>936</v>
+        <v>915</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="37" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="37" t="s">
-        <v>938</v>
+        <v>917</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="37" t="s">
-        <v>939</v>
+        <v>918</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="37" t="s">
-        <v>940</v>
+        <v>919</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="37" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="37" t="s">
-        <v>942</v>
+        <v>921</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="37" t="s">
-        <v>943</v>
+        <v>922</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="37" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="37" t="s">
-        <v>945</v>
+        <v>924</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="37" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="37" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="37" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="37" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="37" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="37" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="37" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="37" t="s">
-        <v>953</v>
+        <v>932</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="37" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="37" t="s">
-        <v>955</v>
+        <v>934</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="37" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="37" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="37" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="37" t="s">
-        <v>959</v>
+        <v>938</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="37" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="37" t="s">
-        <v>961</v>
+        <v>940</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="37" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="37" t="s">
-        <v>963</v>
+        <v>942</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="37" t="s">
-        <v>964</v>
+        <v>943</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="37" t="s">
-        <v>965</v>
+        <v>944</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="37" t="s">
-        <v>966</v>
+        <v>945</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="37" t="s">
-        <v>967</v>
+        <v>946</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="37" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="37" t="s">
-        <v>969</v>
+        <v>948</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="37" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="37" t="s">
-        <v>971</v>
+        <v>950</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="37" t="s">
-        <v>972</v>
+        <v>951</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="37" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="37" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="37" t="s">
-        <v>975</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>
